--- a/doc/SPRING_20220525.xlsx
+++ b/doc/SPRING_20220525.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DCOM_20220127\04_SPRING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF645097-9290-4662-A629-E93ECFEEBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734C876-6542-4D0B-8BC7-947AF957BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -39,282 +39,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
   <si>
     <t>NO.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용어집</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>환경설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목
 차</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>\\192.168.3.101</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">강사Email : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>jamesol@paran.com</t>
   </si>
   <si>
     <t xml:space="preserve">CAFE : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://cafe.daum.net/pcwk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Zoom : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Slack</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>평가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://itsc.cafe24.com/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>긍정의 마음으로 살자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>용어</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램 처리 과정에서 데이터를 담아둘 수 있는 메모리의 공간을 의미한다. 하나의 변수에는 하나의 값만 저장할 수 있고 이 값을 변경할 수 있기 때문에 변할수 있는 값, 즉 변수라고 부릅니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>카멜 표기법</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>두개 이상의 단어가 사용된 경우 새로운 단어가 나타나면 대문자를 
-사용하여 표기(변수, 함수)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>파스칼 표기법</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 단어의 첫 글자를 대문자로 표기하는 방법이며 클래스를 표기할때
-사용(클래스)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTF-8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTF-8은 유니코드를 위한 가변 길이 문자 인코딩 방식 중 하나로, 켄 톰프슨과 롭 파이크가 만들었다. UTF-8은 Universal Coded Character Set + Transformation Format – 8-bit 의 약자이다. 본래는 FSS-UTF(File System Safe UCS/Unicode Transformation Format)라는 이름으로 제안되었다.
-UTF-8 인코딩은 유니코드 한 문자를 나타내기 위해 1바이트에서 4바이트까지를 사용한다. 예를 들어서, U+0000부터 U+007F 범위에 있는 ASCII 문자들은 UTF-8에서 1바이트만으로 표시된다. 4바이트로 표현되는 문자는 모두 기본 다국어 평면(BMP) 바깥의 유니코드 문자이며, 거의 사용되지 않는다. UTF-16과 UTF-8 중 어느 인코딩이 더 적은 바이트를 사용하는지는 문자열에서 사용된 코드 포인트에 따라 달라지며, 실제로 DEFLATE와 같은 일반적인 압축 알고리즘을 사용할 경우 이 차이는 무시할 수 있을 정도이다. 이러한 압축 알고리즘을 사용하기 힘들고 크기가 중요할 경우 유니코드 표준 압축 방식(Standard Compression Scheme for Unicode)을 대신 사용할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP949</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어판 Microsoft Windows의 기본 코드 페이지로, 한글 인코딩의 한 종류이며 EUC-KR의 확장형이다. '통합 완성형'이나 '확장 완성형'이라고도 한다. 마이크로소프트가 개발했기 때문에 MS949, Windows-949 등으로도 불린다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>싱글톤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체의 인스턴스가 오직 1개만 생성되는 패턴을 의미한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>daemon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티태스킹 운영체제에서 데몬은 사용자가 직접적으로 제어하지 않고, 백그라운드에서 돌면서 여러 작업을 하는 프로그램을 말한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형상관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형상관리는 소프트웨어 생명주기의 단계적 산출물에 대한 가시성과 추적 가능성을 체계화
-하는 품질보증 활동이다. 형상관리를 위한 핵심요소로는 형상항목, 베이스라인(기준선), 형
-상관리위원회, CMDB(Configuration Management Database) 등이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript Object Notation라는 의미의 축약어로 데이터를 저장하거나 전송할 때 많이 사용되는 경량의 DATA 교환 형식</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NODE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node.js는 확장성 있는 네트워크 애플리케이션(특히 서버 사이드) 개발에 사용되는 소프트웨어 플랫폼이다. 작성 언어로 자바스크립트를 활용하며 논블로킹(Non-blocking)[3] I/O와 단일 스레드 이벤트 루프를 통한 높은 처리 성능을 가지고 있다. V8으로 빌드된 이벤트 기반 자바스크립트 런타임이다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체 불가능한 토큰(Non-Fungible Token)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷을 통해 볼 수 있는 TV 서비스를 일컫는다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SPRING 핵심 가치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">전자정부 프레임, anyframe, ... </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SPRING 개념</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2. DI(의존관계의 주입)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3. AOP(관점지향 프로그래밍)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OOP, Test(JUnit)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>개발환경</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>tool : STS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>build, lib : Maven</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DB계정 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>전자정부 아키텍처</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1. IoC(제어의 역전)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>STS Download URL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/spring-projects/toolsuite-distribution/wiki/Spring-Tool-Suite-3</t>
   </si>
   <si>
     <t>DB 계정 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SPRING/pcwk_spring</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>tablespace</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SPRING_TS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>실습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sqlplus접근</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>권한 변경</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 정보 확인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SQL&gt; col tablespace_name for a10</t>
@@ -381,30 +272,30 @@
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> C:\APP\JOOHE\PRODUCT\18.0.0\ORADATA\XE\SPRING_TS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>계정생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>12c 이전 방법으로 계정 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ALTER SESSION SET "_ORACLE_SCRIPT" =true;</t>
   </si>
   <si>
     <t>아이디/비번 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CREATE USER SPRING IDENTIFIED BY pcwk_spring</t>
@@ -417,15 +308,15 @@
   </si>
   <si>
     <t>권한 부여</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GRANT CONNECT, RESOURCE, CREATE VIEW, DBA TO SPRING;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MAVEN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MAVEN_HOME</t>
@@ -435,26 +326,26 @@
   </si>
   <si>
     <t>C:\apache-maven-3.8.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>C:\apache-maven-3.8.5\bin</t>
   </si>
   <si>
     <t>maven 프로젝트 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Log4j</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DB 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DB IP : 192.168.3.101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>U_ID VARCHAR2(20 BYTE) NOT NULL,</t>
@@ -473,11 +364,11 @@
   </si>
   <si>
     <t>CREATE TABLE HR_MEMBER(</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>pom.xml(Oracle JDBC Lib)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>&lt;dependency&gt;</t>
@@ -508,18 +399,1967 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;/properties&gt;</t>
+  </si>
+  <si>
+    <t>log4j2.xml</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INFO"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!--    해당 설정파일에서 사용하는 프로퍼티--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"logNm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Spring Log4j2 PCWK&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"layoutPattern"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;[%d{yyyy-MM-dd HH:mm:ss.SSS}] %-5p %C{1}.%M(%F:%L) - %m%n&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!--    LogEvent를 전달해주는 Appender--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Appenders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Console_Appender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SYSTEM_OUT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PatternLayout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${layoutPattern}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RollingFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"File_Appender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fileName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"logs/${logNm}.log"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>filePattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"logs/${logNm}_%d{yyyy-MM-dd}_%i.log.gz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Policies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SizeBasedTriggeringPolicy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"200KB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TimeBasedTriggeringPolicy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Policies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DefaultRolloverStrategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fileIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"min"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RollingFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Appenders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!--    실제 Logger--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Loggers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DEBUG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>additivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AppenderRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Console_Appender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AppenderRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"File_Appender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"org.springframework"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INFO"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>additivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AppenderRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Console_Appender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"com.fucct"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INFO"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>additivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"com.fucct.springlog4j2.loggertest"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TRACE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0A9989"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>additivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF5000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Loggers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>N사와 D사에 본 프로그램 납품</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;추상클래스&gt;&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SH02_02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어설명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>템플릿 메소드 패턴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼클래스에 기본적인 로직의 흐름을 만들고, 그 기능의 일부를 추상 메소드나 오버라이딩이 가능한 protected 메소드 등으로 만든 뒤 서브클래스에서 이 메서드를 필요에 맞게 구현해서 사용하는 방법</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 패턴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 패턴은 설계자들이 "올바른" 설계를 "빨리" 만들 수 있도록 도와줍니다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao확장</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바는 단일 상속이므로 상속을 통한 확장에는 한계가 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,14 +2424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -608,6 +2440,36 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF010101"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF066DE2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A9989"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDF5000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -672,7 +2534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -732,92 +2594,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -826,10 +2712,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,25 +2764,767 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="그룹 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0269C396-AB29-2218-E680-FE89117A70A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1085850" y="18357850"/>
+          <a:ext cx="1524000" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="직사각형 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378D0DE0-226A-88F0-DFA0-C029130C6AED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDao</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0456B6-A13E-A3B3-E019-24508802DC35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC89AEE0-ADD7-42D8-9909-FE1C1E8674DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3886200" y="18351500"/>
+          <a:ext cx="1524000" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="직사각형 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DFBA39-065F-68F9-DA85-4964C14984DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDao</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="직사각형 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526DB6AE-DF6B-ADEE-B014-474E9B80B204}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>add();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>get();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getConnection();</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FFB318-7B86-466E-A764-682E7E6B6E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2965450" y="19875500"/>
+          <a:ext cx="1524000" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="직사각형 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27C2BC5-3525-E44A-E702-D59523E25035}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NUserDao</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="직사각형 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39A8889-2D2D-328A-2555-70A8C8531D05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getConnection();</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8D7CDA-7A17-4F26-A39C-03B9F650C954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4908550" y="19862800"/>
+          <a:ext cx="1524000" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="직사각형 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2764F4B-B6B1-02CA-787A-9ECA7703A229}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DUserDao</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="직사각형 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042BA401-D22D-D0F3-7D67-18A05D32E9D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getConnection();</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289311</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187711</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="연결선: 꺾임 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CF7741-6666-2E5E-785D-60D8E7A34D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4404111" y="17983200"/>
+          <a:ext cx="12700" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1900000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C36D3F-D99B-D3C8-D968-5A2DC0F951AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4349750" y="18516600"/>
+          <a:ext cx="6350" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2194891</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228857</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>108233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E729A0-4369-48C2-9BDF-05A540AFE7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41CCD10-91E6-5C3A-92DB-6ED5EA2682CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,27 +3533,455 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2573683" y="11089308"/>
-          <a:ext cx="4576417" cy="2103783"/>
+          <a:off x="1016000" y="21126450"/>
+          <a:ext cx="4991357" cy="5499383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0468BEAD-8A0D-4CA2-929E-4E10BE4D3807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1104900" y="27660600"/>
+          <a:ext cx="1524000" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="직사각형 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DF8E7A-2577-4549-78E9-F9A6A21EC5EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDao</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="직사각형 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41D1417-B777-E50B-EBF9-C202B93FDDD8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>add();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>get();</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A122ECD8-67E6-435A-AE95-BB98FF749BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3498850" y="27679650"/>
+          <a:ext cx="1682750" cy="1079500"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CA3BB4-D923-B523-04EB-517EE58ED78C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SimpleConnectionMaker</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3371C700-0399-9009-1AEC-0359B54E7911}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getConnection();</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0695FC35-7063-8D73-07AB-12232BB25126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2628900" y="28124150"/>
+          <a:ext cx="882650" cy="273050"/>
+          <a:chOff x="6248400" y="26581100"/>
+          <a:chExt cx="882650" cy="184150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="다이아몬드 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06D8B68-A1AA-ED7A-4780-5FE7D57A7DA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6248400" y="26581100"/>
+            <a:ext cx="349250" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="직선 연결선 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DDFEBA-413A-EF8A-199F-E2053A43DE2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6597650" y="26663650"/>
+            <a:ext cx="533400" cy="9525"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2484,22 +5564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="15"/>
+      <c r="A1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -2521,42 +5601,42 @@
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="4"/>
     </row>
   </sheetData>
@@ -2566,7 +5646,7 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:H8" location="용어집!A1" display="용어집" xr:uid="{D2CD68FC-9F6D-4DB1-AEC2-2E1660DC0D24}"/>
     <hyperlink ref="C9:H9" location="환경설정_20220525!A1" display="환경설정" xr:uid="{B108AA3C-E664-420E-9B91-BD8BACD03D1C}"/>
@@ -2592,7 +5672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -2600,7 +5680,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +5689,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +5698,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2627,7 +5707,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2636,7 +5716,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2645,7 +5725,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +5734,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{3AED6F48-AD0B-46BD-A0FC-33500FC52F40}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6D06C2FA-5641-4891-9963-2BA9BFAF32A5}"/>
@@ -2669,10 +5749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9CC0A7-6B8F-4399-9287-F0BB1B401A3F}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -2681,16 +5761,16 @@
     <col min="2" max="16384" width="3.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:28" ht="18" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:28" ht="18" customHeight="1">
+      <c r="A2" s="29"/>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2698,8 +5778,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:28" ht="18" customHeight="1">
+      <c r="A3" s="29"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2707,8 +5787,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18" customHeight="1">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:28" ht="18" customHeight="1">
+      <c r="A4" s="29"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2716,8 +5796,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:28" ht="18" customHeight="1">
+      <c r="A5" s="29"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2725,8 +5805,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18" customHeight="1">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:28" ht="18" customHeight="1">
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2734,477 +5814,455 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:28" ht="18" customHeight="1">
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="18" customHeight="1">
+    <row r="9" spans="1:28" ht="18" customHeight="1">
       <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-    </row>
-    <row r="10" spans="1:25" ht="98" customHeight="1">
-      <c r="C10" s="9">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+    </row>
+    <row r="10" spans="1:28" ht="98" customHeight="1">
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-    </row>
-    <row r="11" spans="1:25" ht="61" customHeight="1">
-      <c r="C11" s="9">
+      <c r="D10" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="C11" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12" spans="1:25" ht="60.5" customHeight="1">
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-    </row>
-    <row r="13" spans="1:25" ht="96.5" customHeight="1">
-      <c r="C13" s="9">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-    </row>
-    <row r="14" spans="1:25" ht="64" customHeight="1">
-      <c r="C14" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-    </row>
-    <row r="15" spans="1:25" ht="35.5" customHeight="1">
-      <c r="C15" s="9">
-        <v>6</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-    </row>
-    <row r="16" spans="1:25" ht="33.5" customHeight="1">
-      <c r="C16" s="9">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-    </row>
-    <row r="17" spans="3:25" ht="33" customHeight="1">
-      <c r="C17" s="9">
-        <v>8</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-    </row>
-    <row r="18" spans="3:25" ht="71" customHeight="1">
-      <c r="C18" s="9">
-        <v>9</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-    </row>
-    <row r="19" spans="3:25" ht="190" customHeight="1">
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-    </row>
-    <row r="20" spans="3:25" ht="89" customHeight="1">
-      <c r="C20" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-    </row>
-    <row r="21" spans="3:25" ht="18" customHeight="1">
-      <c r="C21" s="9">
-        <v>11</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-    </row>
-    <row r="22" spans="3:25" ht="18" customHeight="1">
-      <c r="C22" s="9">
-        <v>12</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
+      <c r="D11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+    </row>
+    <row r="12" spans="1:28" ht="18" customHeight="1">
+      <c r="C12" s="33"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+    </row>
+    <row r="13" spans="1:28" ht="18" customHeight="1">
+      <c r="C13" s="33"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+    </row>
+    <row r="14" spans="1:28" ht="18" customHeight="1">
+      <c r="C14" s="33"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+    </row>
+    <row r="15" spans="1:28" ht="18" customHeight="1">
+      <c r="C15" s="33"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+    </row>
+    <row r="16" spans="1:28" ht="18" customHeight="1">
+      <c r="C16" s="33"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="3:28" ht="18" customHeight="1">
+      <c r="C17" s="33"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="3:28" ht="18" customHeight="1">
+      <c r="C18" s="33"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="3:28" ht="18" customHeight="1">
+      <c r="C19" s="33"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+    </row>
+    <row r="20" spans="3:28" ht="18" customHeight="1">
+      <c r="C20" s="33"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+    </row>
+    <row r="21" spans="3:28" ht="18" customHeight="1">
+      <c r="C21" s="33"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+    </row>
+    <row r="22" spans="3:28" ht="18" customHeight="1">
+      <c r="C22" s="33"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:Y11"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="D9:J9"/>
-    <mergeCell ref="K9:Y9"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:Y10"/>
+    <mergeCell ref="K9:AB9"/>
+    <mergeCell ref="K10:AB10"/>
+    <mergeCell ref="K11:AB11"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:Y12"/>
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:Y13"/>
     <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:Y14"/>
+    <mergeCell ref="K12:AB12"/>
+    <mergeCell ref="K13:AB13"/>
+    <mergeCell ref="K14:AB14"/>
     <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:Y15"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:Y16"/>
     <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:Y17"/>
+    <mergeCell ref="K15:AB15"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K17:AB17"/>
     <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:Y21"/>
     <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:Y22"/>
     <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:Y18"/>
     <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:Y19"/>
     <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Y20"/>
+    <mergeCell ref="K18:AB18"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="K20:AB20"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="K22:AB22"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{94041EF1-99F6-496C-A4DF-B01D58E2F913}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{C1A694DC-C5A9-44C2-B577-9D8B5F7926C6}"/>
@@ -3214,16 +6272,15 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{16FF6936-C2EA-45FA-8CAE-9A770FD3E778}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7DD0F-F4E8-4C0E-A41F-4DE0D6D63AEC}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -3233,7 +6290,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -3241,7 +6298,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +6307,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3259,7 +6316,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +6325,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3277,7 +6334,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3286,130 +6343,386 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="C9" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="D10" s="26" t="s">
-        <v>61</v>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="D11" s="26" t="s">
-        <v>109</v>
+      <c r="D11" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="E13" s="26" t="s">
-        <v>115</v>
+      <c r="E13" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="F14" s="6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="F15" s="6" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="F16" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="18" customHeight="1">
+      <c r="F17" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="18" customHeight="1">
+      <c r="E18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="18" customHeight="1">
+      <c r="D20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D21" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D22" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D23" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D24" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D25" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="4:10" ht="18" customHeight="1">
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="18" customHeight="1">
+      <c r="E28" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="18" customHeight="1">
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="18" customHeight="1">
+      <c r="E30" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="18" customHeight="1">
+      <c r="E31" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="18" customHeight="1">
+      <c r="C33" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1">
+      <c r="D34" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="18" customHeight="1">
+      <c r="D35" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="18" customHeight="1">
+      <c r="D36" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="18" customHeight="1">
+      <c r="D37" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="18" customHeight="1">
+      <c r="D38" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="18" customHeight="1">
+      <c r="D39" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="18" customHeight="1">
+      <c r="D40" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="18" customHeight="1">
+      <c r="D41" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="18" customHeight="1">
+      <c r="D42" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="18" customHeight="1">
+      <c r="D43" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="18" customHeight="1">
+      <c r="D44" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="18" customHeight="1">
-      <c r="F17" s="6" t="s">
+    <row r="45" spans="3:8" ht="18" customHeight="1">
+      <c r="D45" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="18" customHeight="1">
-      <c r="E18" s="6" t="s">
+    <row r="46" spans="3:8" ht="18" customHeight="1">
+      <c r="D46" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="18" customHeight="1">
-      <c r="C20" s="27" t="s">
+    <row r="47" spans="3:8" ht="18" customHeight="1">
+      <c r="D47" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="18" customHeight="1">
+      <c r="D48" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="18" customHeight="1">
+      <c r="D49" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C21" s="29" t="s">
+    </row>
+    <row r="50" spans="4:4" ht="18" customHeight="1">
+      <c r="D50" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="18" customHeight="1">
+      <c r="D51" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="18" customHeight="1">
+      <c r="D52" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="18" customHeight="1">
+      <c r="D53" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="18" customHeight="1">
+      <c r="D54" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="18" customHeight="1">
+      <c r="D55" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C22" s="29" t="s">
+    <row r="56" spans="4:4" ht="18" customHeight="1">
+      <c r="D56" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="29" t="s">
+    <row r="57" spans="4:4" ht="18" customHeight="1">
+      <c r="D57" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C24" s="29" t="s">
+    <row r="58" spans="4:4" ht="18" customHeight="1">
+      <c r="D58" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="59" spans="4:4" ht="18" customHeight="1">
+      <c r="D59" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="3:9" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="3:9" ht="18" customHeight="1">
-      <c r="D27" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="18" customHeight="1">
-      <c r="D28" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="18" customHeight="1">
-      <c r="D29" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="18" customHeight="1">
-      <c r="D30" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="18" customHeight="1">
-      <c r="D31" s="6" t="s">
-        <v>121</v>
+    <row r="60" spans="4:4" ht="18" customHeight="1">
+      <c r="D60" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="18" customHeight="1">
+      <c r="D61" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" ht="18" customHeight="1">
+      <c r="D62" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="18" customHeight="1">
+      <c r="D63" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="18" customHeight="1">
+      <c r="D64" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" ht="18" customHeight="1">
+      <c r="D65" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" ht="18" customHeight="1">
+      <c r="D66" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" ht="18" customHeight="1">
+      <c r="D67" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" ht="18" customHeight="1">
+      <c r="D68" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" ht="18" customHeight="1">
+      <c r="D69" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" ht="18" customHeight="1">
+      <c r="D70" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" ht="18" customHeight="1">
+      <c r="D71" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" ht="18" customHeight="1">
+      <c r="D72" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" ht="18" customHeight="1">
+      <c r="D73" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" ht="18" customHeight="1">
+      <c r="D74" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" ht="18" customHeight="1">
+      <c r="C77" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="79" spans="3:15" ht="18" customHeight="1">
+      <c r="D79" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="3:15" ht="18" customHeight="1">
+      <c r="O80" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="4:9" ht="18" customHeight="1">
+      <c r="D119" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+    </row>
+    <row r="120" spans="4:9" ht="18" customHeight="1">
+      <c r="E120" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{307F2389-6BA4-4272-A8AF-7D1252E72EA9}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CBC17982-1273-4B0E-ADCE-5DF8E45E6F6F}"/>
@@ -3419,6 +6732,7 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{638196ED-DDF7-461A-AD90-5A8A7AA439C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3426,7 +6740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C9BF4-160D-4337-A53D-BEBCFB6638B2}">
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B208" workbookViewId="0">
       <selection activeCell="AO155" sqref="AO155"/>
     </sheetView>
   </sheetViews>
@@ -3437,7 +6751,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -3445,7 +6759,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +6768,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3463,7 +6777,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3472,7 +6786,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +6795,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3490,408 +6804,408 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="C14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="18" customHeight="1">
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18" customHeight="1">
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="3:9" ht="18" customHeight="1">
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="18" customHeight="1">
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="18" customHeight="1">
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="18" customHeight="1">
-      <c r="E24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="E24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="45" spans="5:9" ht="18" customHeight="1">
-      <c r="E45" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="E45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="5:9" ht="18" customHeight="1">
       <c r="F46" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="18" customHeight="1">
-      <c r="E60" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="E60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="5:10" ht="18" customHeight="1">
       <c r="F61" s="6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="18" customHeight="1">
-      <c r="F63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="F63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="5:10" ht="18" customHeight="1">
       <c r="G64" s="6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="6:13" ht="18" customHeight="1">
-      <c r="F66" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G66" s="11"/>
+      <c r="F66" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="6:13" ht="18" customHeight="1">
       <c r="G67" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="6:13" ht="18" customHeight="1">
       <c r="G68" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="6:13" ht="18" customHeight="1">
-      <c r="G70" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
+      <c r="G70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
     </row>
     <row r="71" spans="6:13" ht="18" customHeight="1">
       <c r="I71" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="6:13" ht="18" customHeight="1">
       <c r="I72" s="6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="6:13" ht="18" customHeight="1">
       <c r="I73" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="6:13" ht="18" customHeight="1">
       <c r="I74" s="6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="6:13" ht="18" customHeight="1">
       <c r="I75" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="6:13" ht="18" customHeight="1">
       <c r="I76" s="6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="6:13" ht="18" customHeight="1">
       <c r="I78" s="6" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="6:13" ht="18" customHeight="1">
       <c r="I79" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="6:13" ht="18" customHeight="1">
       <c r="I80" s="6" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="9:9" ht="18" customHeight="1">
       <c r="I81" s="6" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="9:9" ht="18" customHeight="1">
       <c r="I82" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="9:9" ht="18" customHeight="1">
       <c r="I84" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="9:9" ht="18" customHeight="1">
       <c r="I85" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="9:9" ht="18" customHeight="1">
       <c r="I87" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="9:9" ht="18" customHeight="1">
       <c r="I88" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="9:9" ht="18" customHeight="1">
       <c r="I90" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="9:9" ht="18" customHeight="1">
       <c r="I91" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="9:9" ht="18" customHeight="1">
       <c r="I93" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="9:9" ht="18" customHeight="1">
       <c r="I94" s="6" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="9:9" ht="18" customHeight="1">
       <c r="I95" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="7:15" ht="18" customHeight="1">
       <c r="I97" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="7:15" ht="18" customHeight="1">
       <c r="I98" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="7:15" ht="18" customHeight="1">
       <c r="I100" s="6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="7:15" ht="18" customHeight="1">
       <c r="I101" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="7:15" ht="18" customHeight="1">
       <c r="I102" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="7:15" ht="18" customHeight="1">
-      <c r="G104" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
+      <c r="G104" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
     </row>
     <row r="105" spans="7:15" ht="18" customHeight="1">
       <c r="I105" s="6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="7:15" ht="18" customHeight="1">
-      <c r="G107" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
+      <c r="G107" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
     </row>
     <row r="109" spans="7:15" ht="18" customHeight="1">
-      <c r="H109" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
+      <c r="H109" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
     </row>
     <row r="110" spans="7:15" ht="18" customHeight="1">
       <c r="I110" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="7:15" ht="18" customHeight="1">
-      <c r="H112" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
+      <c r="H112" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
     </row>
     <row r="113" spans="7:14" ht="18" customHeight="1">
       <c r="I113" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="7:14" ht="18" customHeight="1">
       <c r="I114" s="6" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="7:14" ht="18" customHeight="1">
       <c r="I115" s="6" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="7:14" ht="18" customHeight="1">
-      <c r="H117" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
+      <c r="H117" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
     </row>
     <row r="118" spans="7:14" ht="18" customHeight="1">
       <c r="I118" s="6" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="7:14" ht="18" customHeight="1">
-      <c r="G120" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+      <c r="G120" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
     </row>
     <row r="121" spans="7:14" ht="18" customHeight="1">
       <c r="H121" s="6" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="7:14" ht="18" customHeight="1">
       <c r="H122" s="6" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="7:7" ht="18" customHeight="1">
       <c r="G192" s="6" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{057E775A-2127-44B2-B002-6E18EAE541A2}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{47ACA240-7E3F-4183-BB9A-F93A936FA921}"/>

--- a/doc/SPRING_20220525.xlsx
+++ b/doc/SPRING_20220525.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DCOM_20220127\04_SPRING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F334C4-5181-49CA-B22A-3170DAF5D03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B3869-E99B-4AB6-B2A9-8BAC6709DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="40" windowWidth="12630" windowHeight="15280" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -47,173 +47,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="961">
   <si>
     <t>NO.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>용어집</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>환경설정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>목
 차</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>\\192.168.3.101</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강사Email : </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>jamesol@paran.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFE : </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cafe.daum.net/pcwk</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom : </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slack</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itsc.cafe24.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍정의 마음으로 살자</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRING 핵심 가치</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>\\192.168.3.101</t>
+    <t xml:space="preserve">전자정부 프레임, anyframe, ... </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">강사Email : </t>
+    <t>SPRING 개념</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>jamesol@paran.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFE : </t>
+    <t>2. DI(의존관계의 주입)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://cafe.daum.net/pcwk</t>
+    <t>3. AOP(관점지향 프로그래밍)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Zoom : </t>
+    <t>OOP, Test(JUnit)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://us06web.zoom.us/j/5774287769?pwd=TFVXV3NkZkFnVWZ3NlVSVERZK0lZdz09</t>
+    <t>개발환경</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Slack</t>
+    <t>tool : STS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://join.slack.com/t/slack-05r6316/shared_invite/zt-12h1if6yq-TCrMZZJtNbyjh93BGBnNAA</t>
+    <t>build, lib : Maven</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평가</t>
+    <t>DB계정 생성</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://itsc.cafe24.com/</t>
+    <t>전자정부 아키텍처</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>긍정의 마음으로 살자</t>
+    <t>1. IoC(제어의 역전)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>No.</t>
+    <t>STS Download URL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>용어</t>
+    <t>https://github.com/spring-projects/toolsuite-distribution/wiki/Spring-Tool-Suite-3</t>
+  </si>
+  <si>
+    <t>DB 계정 생성</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SPRING 핵심 가치</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전자정부 프레임, anyframe, ... </t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRING 개념</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. DI(의존관계의 주입)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. AOP(관점지향 프로그래밍)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>OOP, Test(JUnit)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발환경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool : STS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>build, lib : Maven</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB계정 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자정부 아키텍처</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. IoC(제어의 역전)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>STS Download URL</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/spring-projects/toolsuite-distribution/wiki/Spring-Tool-Suite-3</t>
-  </si>
-  <si>
-    <t>DB 계정 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>SPRING/pcwk_spring</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>tablespace</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SPRING_TS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>실습</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>sqlplus접근</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>권한 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 정보 확인</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SQL&gt; col tablespace_name for a10</t>
@@ -280,30 +280,30 @@
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> C:\APP\JOOHE\PRODUCT\18.0.0\ORADATA\XE\SPRING_TS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>계정생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>12c 이전 방법으로 계정 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ALTER SESSION SET "_ORACLE_SCRIPT" =true;</t>
   </si>
   <si>
     <t>아이디/비번 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>default tablespace SPRING_TS</t>
@@ -313,15 +313,15 @@
   </si>
   <si>
     <t>권한 부여</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>GRANT CONNECT, RESOURCE, CREATE VIEW, DBA TO SPRING;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MAVEN</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MAVEN_HOME</t>
@@ -331,22 +331,22 @@
   </si>
   <si>
     <t>C:\apache-maven-3.8.5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>C:\apache-maven-3.8.5\bin</t>
   </si>
   <si>
     <t>maven 프로젝트 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DB 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DB IP : 192.168.3.101</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>U_ID VARCHAR2(20 BYTE) NOT NULL,</t>
@@ -365,11 +365,11 @@
   </si>
   <si>
     <t>CREATE TABLE HR_MEMBER(</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>pom.xml(Oracle JDBC Lib)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;dependency&gt;</t>
@@ -403,7 +403,7 @@
   </si>
   <si>
     <t>log4j2.xml</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2296,172 +2296,172 @@
   </si>
   <si>
     <t>N사와 D사에 본 프로그램 납품</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;&lt;추상클래스&gt;&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S_SH02_02</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>용어설명</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>템플릿 메소드 패턴</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>템플릿 메소드 패턴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>슈퍼클래스에 기본적인 로직의 흐름을 만들고, 그 기능의 일부를 추상 메소드나 오버라이딩이 가능한 protected 메소드 등으로 만든 뒤 서브클래스에서 이 메서드를 필요에 맞게 구현해서 사용하는 방법</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>디자인 패턴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>디자인 패턴은 설계자들이 "올바른" 설계를 "빨리" 만들 수 있도록 도와줍니다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Dao확장</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>자바는 단일 상속이므로 상속을 통한 확장에는 한계가 있다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>UserDao와 SimpleConnectionMaker가 강한 결합을 이루고 있다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(N사와 D사에 납품시 문제 발생) </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>인터페이스 도입을 통한 강한 결합 문제 해결</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>(UserDao는 NConnectionMaker를 알지 못한다.)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S_SH03_01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Log4j 설정</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>loC(제어의 역전)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어의 역전(loC)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>loC(제어의 역전)</t>
+    <t>Inversion of Control</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>제어의 역전(loC)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inversion of Control</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트가 자신이 사용할 오브젝트를 스스로 선택하지 않는다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>당연히 생성하지도 않는다. 모든 제어 권한을 자신이 아닌 다른 대상에게 위임한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 팩토리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>객체의 생성 방법을 결정하고 그렇게 만들어진 오브젝트를 돌려준다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 팩토리를 활용한 구조</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>제어의 역전에서는 오브젝트가 자신이 사용할 오브젝트를 스스로 선택하지 않는다, 당연히 생성도 하지 않는다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>자신이 어떻게 만들어지고 어디서 사용되는지를 알 수 없다. 모든 제어 권한을 자신이 아닌 다른 대상자에게 위임하기 때문이다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>제어권의 이전을 통한 제어관계의 역전</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DaoFactory를 사용하지 않고 ApplicationContext를 사용시 장점</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- 클라이언트는 구체적인 팩토리 클래스를 알 필요가 없다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- 애플리케이션 컨텍스트는 종합 IoC 서비스를 제공한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- 애플리케이션 컨텍스트는 빈을 검색하는 다양한 방법을 제공한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈(Bean)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈 또는 빈 오브젝트는 스프링 IoC방식으로 관리하는 오브젝트
 (스프링이 직접 생성과 제어 담당)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈(Bean Factory)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>애플리케이션 컨텍스트
 (application context)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈 팩토리를 확장한 IoC 컨테이너이다. 빈을 등록하고 관리하는 
 기본적인 기능은 동일, 스프링이 제공하는 부가서비스를 등록한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>스프링의 IoC를 담당하는 핵심 컨테이너를 가라킨다
 (빈 생성, 등록, 조회, 부가적인 기능)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>스프링 프레임워크</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>IoC컨테이너, 애플리케이션 컨텍스트를 포함해서 
 스프링이 제공하는 모든 기능을 통틀어 말할때 사용한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>싱글톤 레지스트리와 오브젝트 스코프</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DaoFactory VS ApplicationContext</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -3199,83 +3199,83 @@
       </rPr>
       <t>userDao04);</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>[2022-05-27 12:45:31.775] DEBUG SingleToneMain.main(SingleToneMain.java:30) - =userDao04=com.pcwk.ehr.UserDao@7161d8d1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DI(의존관계의 주입)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Dependency Injection</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DI는 오브젝트 레퍼런스를 외부로부터 제공(주입)받고</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>이를 통해 여타 오브젝트와 다이내믹하게 의존관계가 만들어지는 것이 핵심</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>XML을 이용한 DI</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>클래스 설정과 XML설정의 대응정보</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈설정 파일</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>자바코드</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>XML</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Configuration</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈의 이름</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;beans&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Bean 메소드이름()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;bean id="메소드이름"&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빈의 클래스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>return new BeanClass();</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>메소드를 통해서 의존관계 주입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>생성자를 통한 의존관계 주입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3300,35 +3300,35 @@
       </rPr>
       <t>, 일반 메서드를 이용한 주입</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>생성자</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>의존관계 표현</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>class="com.pcwk.ehr.UserDao"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ApplicationContext가 동작하는 방식</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DataSource 적용</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DB 커넥션을 가져오는 오브젝트(Interface)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ex) DB연결, 커넥션 풀</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;!-- https://mvnrepository.com/artifact/org.springframework/spring-jdbc --&gt;</t>
@@ -3504,11 +3504,11 @@
   </si>
   <si>
     <t>S_SH05_01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>applicationContext.xml</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -4533,57 +4533,57 @@
   </si>
   <si>
     <t>setDataSource()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링이 개발자에게 제공하는 가장 중요한 가치가 무엇이냐고 질문한다면</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 객체지향과 테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링의 핵심 IoC와 DI 오브젝트 설계와 생성, 관계, 사용에 관한 기술</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트는 가능하면 작은 단위로 쪼개서 집중해서 할 수 있어야 한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 단위 테스트(unit test)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>main() 테스트의 문제점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수동으로 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 실행작업이 번거롭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 테스트 메소드는 public 선언</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 메소드에 @Test를 붙여 준다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>JUnit</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>스프링이 개발자에게 제공하는 가장 중요한 가치가 무엇이냐고 질문한다면</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 객체지향과 테스트</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링의 핵심 IoC와 DI 오브젝트 설계와 생성, 관계, 사용에 관한 기술</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트는 가능하면 작은 단위로 쪼개서 집중해서 할 수 있어야 한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 단위 테스트(unit test)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>main() 테스트의 문제점</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수동으로 확인</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 실행작업이 번거롭다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 테스트 메소드는 public 선언</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 메소드에 @Test를 붙여 준다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUnit</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">         * 1. 테스트 메소드는 public 선언</t>
   </si>
   <si>
@@ -5006,7 +5006,7 @@
   </si>
   <si>
     <t>테스트 메서드 앞 뒤 선처리와 후처리 작업을 하고 싶다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        @Before</t>
@@ -5472,33 +5472,33 @@
   </si>
   <si>
     <t>1. setUp()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2. test02()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>3. tearDown()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2. test()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>set param</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>JUnit2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junit setUp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Junit setUp</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">            context </t>
     </r>
@@ -5618,15 +5618,15 @@
   </si>
   <si>
     <t>문제) 테스트 메소드가 수행될 때마다 context를 새로이 읽고 있음</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>(테스트에 오랜 시간이 걸림!)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>해결)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        ApplicationContext context;</t>
@@ -5767,31 +5767,31 @@
   </si>
   <si>
     <t>TDD(Test Driven Development)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>학습 테스트의 장점</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>다양한 조건에 따른 기능을 손쉽게 확인할 수 있다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>학습 테스트 코드를 개발 중에 참고 할 수 있다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>제품을 업그레이드할 때 호환성 검증을 도와준다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트 작성에 대한 좋은 훈련이 된다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>새로운 기술을 공부하는 과정이 즐거워진다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        UserVO user01;</t>
@@ -7404,23 +7404,23 @@
   </si>
   <si>
     <t>코드 단순화</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DB 연결, 5. 자원반납 부분을 OOP로 </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>개발자가 구현하지 않도록 처리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>자원반납</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>변하는 부분과 변하지 않는 부분을 메소드 통해 분리!</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                                        pstmt.close();</t>
@@ -7970,11 +7970,11 @@
   </si>
   <si>
     <t>상속을 통한 확장</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>개선 : 전략패턴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                        pstmt.executeUpdate();</t>
@@ -8316,11 +8316,11 @@
   </si>
   <si>
     <t>S_SH06_03</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>익명 내부 클래스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9336,15 +9336,15 @@
   </si>
   <si>
     <t>CREATE USER SPRING IDENTIFIED BY pcwk_spring</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S_SH07_01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>UserDao.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9379,20 +9379,20 @@
       </rPr>
       <t>에서도 사용할 수 있게 별도의 클래스로 작성</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                jdbcContext.workWithStatementStratege (</t>
   </si>
   <si>
     <t>applicationContext.xml</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 XML 설정</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>스프링 XML 설정</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">        </t>
     </r>
@@ -9595,59 +9595,59 @@
   </si>
   <si>
     <t>스프링 설정파일에 클래스를 등록하려면 &lt;bean&gt; 엘리먼트를 사용한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;bean&gt; 엘리먼트</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>id와 class속성을 사용할 수 있다. 이때 class는 필수</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>id속성 값에 해당하는 문자열 : 자바의 식별자 규칙하고 동일, 일반적으로 CamelCase를 사용한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>문제 발생 이유</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>id="7userService"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>id="user Service"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>id="user#Service:ImpI"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>숫자로 시작</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>특수기호 사용</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>name은 자바 식별자 규칙을 따르지 않는다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>공백 포함</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>name="http:www.pcwk.com"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10630,7 +10630,7 @@
       </rPr>
       <t>수행</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10740,31 +10740,31 @@
   </si>
   <si>
     <t>의존성 관리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>스프링 프레임워크의 가장 중요한 특징은 객체의 생성과 의존관계를 컨테이너가 자동으로 관리한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>이것이 스프링 IoC의 핵심원리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>IoC를 다음 두가지 형태로 지원</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Dependency Lookup</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Dependency InJection</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Constructor InJection</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -11134,11 +11134,11 @@
   </si>
   <si>
     <t>생성자 다중변수 매핑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>생성자에 인자가 여러 개인 경우</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11610,15 +11610,15 @@
   </si>
   <si>
     <t>의존관계 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SonySpeaker에서 유지보수 과정에서 다른 스피커로 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>(DI 외부에서 변경)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12021,7 +12021,7 @@
   </si>
   <si>
     <t>Setter 인젝션</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12691,47 +12691,47 @@
   </si>
   <si>
     <t>컬렉션(Collection) 객체 설정</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>컬렉션 유형</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>엘리먼트</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>java.util.List, 배열</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>java.util.Set</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>java.util.Map</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>java.util.Properties</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;list&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;set&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;map&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;props&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13495,34 +13495,34 @@
       </rPr>
       <t>str);</t>
     </r>
+  </si>
+  <si>
+    <t>GIT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT과 GITHUB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전관리(version control) 소스관리(SCM)란 동일한 정보(파일)에 대한 여러 버전을 관리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 관리 종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용 : Team Foundation Server, …</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>GIT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GIT과 GITHUB</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>버전관리(version control) 소스관리(SCM)란 동일한 정보(파일)에 대한 여러 버전을 관리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>버전 관리 종류</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>상용 : Team Foundation Server, …</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>분산 버전관리 시스템</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13550,31 +13550,31 @@
       </rPr>
       <t>, GIT</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>장점</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- 전 세계의 수많은 사용자가 사용 중</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- git을 사용한 저장소 공유 사이트인 GITHub사이트 존재</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>- 풍부한 사용가이드 있음</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>GIT Download</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>디렉토리 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>joohe@joohye MINGW64 ~</t>
@@ -13671,67 +13671,67 @@
   </si>
   <si>
     <t>명령어</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>git init</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>git add 파일이름</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>git commit</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>git status</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>저장소 생성, 실행 위치에 GIT 저장소 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>저장소에 파일 추가</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>저장소에 변경된 내용 제출</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>현재 저장소의 상태 출력</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>https://git-scm.com</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>https://git-scm.com/docs</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0. 이름, email 등록</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1. 저장소 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2. 저장소 Hello.java 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>3. 커밋</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14934,55 +14934,55 @@
   </si>
   <si>
     <t>어노테이션 기반 설정</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>어노테이션 설정 기초</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>어노테이션 설정 기초</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>대부분의 프레임워크가 그렇듯이 스프링 프레임워크 역시 XML 설정이 매우 중요하다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>그만큼 XML파일의 과도한 설정에 대한 부담도 크다. 이로 인해 프레임워크 사용을 꺼리기도 한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>따라서 대부분 프레임워크는 어노테이션을 이용한 설정을 지원한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>컴포넌트 스캔(component-scan) 설정</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>스프링 설정파일에 사용할 객체들을 &lt;bean&gt; 등록하지 않고 자동으로 생성하려면</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>&lt;context:component-scan /&gt; 이란 엘리먼트를 정의해야 한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>이설정이 추가되면 스프링 컨테이너는 클래스 패스에 있는 클래스들을 스캔하여 @Component가</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>설정된 클래스들을 자동으로 객체 생성한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>스캔대상에 포함한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>base-package속성을 com.pcwk.ehr 형태로 설정하면 "com.pcwk.her" 패키지로 시작하는 모든 패키지를</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ex)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15444,47 +15444,47 @@
   </si>
   <si>
     <t>id나 name 속성 미지정 시 이름 규칙</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Component에 id나 이름을 지정하지 않으면, 컨테이너가 자동으로 이름을 생성해준다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">@Component </t>
   </si>
   <si>
     <t>id가 클래스 이름에 첫글자만 소문자로 변경해 생성한다. LgTv -&gt; lgTv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>의존성 주입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>의존성 주입 어노테이션 '@Autowired, @Inject, @Qualifier, @Resource가 있다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>어노테이션</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Autowired</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Component("tv")</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>주로 변수 위에 설정하여 해당 타입의 객체를 찾아서 자동으로 할당한다.
 org.springframework.beans.factory.annotation.Autowired;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Qualifier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15513,11 +15513,11 @@
       <t>할 때 사용한다.
 org.springframework.beans.factory.annotation.Qualifier</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Resource</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15543,31 +15543,31 @@
       <t>의 기능을 결합한 어노테이션이다.
 javax.annotaion.Resource</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Autowired는 생성자나 메소드, 멤버변수 위에 모두 사용가능하다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>대부분 멤버변수 위에 선언하여 사용한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Autowired 붙은 객체가 메모리에 없다면 컨테이너가</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NoSuchBeanDefinitionException을 발생시킨다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>문제는 의존성 주입 대상이 되는 Speaker 타입의 객체가 두개 이상일 때 발생한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>sonySpeaker, appleSpeaker 객체가 모두 메모리에 생성되어 있는 상황이라면 컨테이너는 어떤 객체를 할당할지 스스로 판단할 수 없다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15882,15 +15882,15 @@
   </si>
   <si>
     <t>@Autowired는 변수의 타입을 기준으로 객체를 검색하여 의존성을 주입 처리한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Resource는 name속성을 사용할 수 있어서, 스프링 컨테이너가 해당 이름으로</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>생성된 객체를 검색하여 의존성을 주입한다.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16089,103 +16089,103 @@
   </si>
   <si>
     <t>핵심(공통)적인 설정은 XML로, 개별업무(게시판)는 Annotaion으로 처리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>의미</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>파일명</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Controller</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Component를 상속 받은 아래의 어노테이션이 추가됨(각각의 Layer 역할이 구분되지 않아 확장해줌)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Service</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>@Repository</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>비즈니스 로직을 처리하는 Service 클래스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>데이터베이스 연동을 처리하는 Dao클래스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>XXXController</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>XXXServiceImpl</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>XXXDAO</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>BoardController.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>BoardServiceImpl.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>BoardDao.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>사용자의 요청 제어하는 Controller 클래스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Controller</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Service</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>repository(DAO)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Spring jdbcTemplate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring이 제공하는 JdbcTemplate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Spring이 제공하는 JdbcTemplate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>기술에 독립적인 UserDao만들기</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Interface도입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>UserDaoImpl.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                                </t>
@@ -17575,27 +17575,27 @@
   </si>
   <si>
     <t>&lt;&lt;interface&gt;&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>UserDao구현 class</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>서비스 추상화</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>사용자 레벨관리 기능 추가</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>사용자가 처음 가입하면 : BASIC</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SILVER레벨이면서 30번 이상 추천을 받으면 GOLD로 레벨 UP.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -17623,7 +17623,7 @@
       </rPr>
       <t xml:space="preserve"> BASIC, SLIVER, GOLD</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -17648,488 +17648,488 @@
       </rPr>
       <t xml:space="preserve"> : SILVER</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>사용자 레벨의 변경 작업은 일정한 주기를 가지고 일괄처리.(트랜잭션 관리)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테이블 컬럼 추가</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>필드명</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>타입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>레벨</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>추천수</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>이메일</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>등록일</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>물리명</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>U_LEVEL</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>LOGIN</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>RECOMMEND</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EMIL</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>REG_DT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER(1)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER(8)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(320)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>HR_MEMBER</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>서비스 추상화(사용자 Level 관련)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> UserVO {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> BASIC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> SILVER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF066DE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> GOLD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF010101"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// jdk 1.5이후 Enum으로 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>public enum Level{</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>public</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> UserVO {</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>final</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF066DE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> BASIC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0099CC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>final</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF066DE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> SILVER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0099CC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>final</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF066DE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> GOLD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0099CC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF010101"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>// jdk 1.5이후 Enum으로 처리</t>
-    </r>
-  </si>
-  <si>
-    <t>public enum Level{</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>상수대신 Enum으로 처리</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>개발을 진행할때 Enum을 통해 얻는 기본적인 장점들은 아래와 같습니다.</t>
@@ -18151,87 +18151,87 @@
   </si>
   <si>
     <t>EMAIL</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AS_IS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TO_BE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>단건조회</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>목록조회</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>add()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>doUpdate()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>get()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>getAll()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>getCount()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>등록건수</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>전체조회</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>doInsert()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>doDelete()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>doSelectOne()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>doRetrieve()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t># 현재 브랜치</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>joohe@joohye MINGW64 /c/DCOM_20220127/git_tutorial (master)</t>
@@ -18241,11 +18241,11 @@
   </si>
   <si>
     <t># 새로운 브랜치 생성</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$ git branch hostfix</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  hostfix</t>
@@ -18255,7 +18255,7 @@
   </si>
   <si>
     <t># 브랜치 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$ git checkout hostfix</t>
@@ -18271,15 +18271,15 @@
   </si>
   <si>
     <t># hostfix에서 소스 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$ notepad Hello.java</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t># 내용 확인</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$ cat Hello.java</t>
@@ -18301,27 +18301,47 @@
   </si>
   <si>
     <t>#변경된 저장소 파일을 모드 Commit</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>#git merge: master과 hostfix 병합</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$ git merge hostfix</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserService클래스의 의존관계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SH10_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격 github</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18850,75 +18870,87 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -18929,179 +18961,204 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -19109,208 +19166,180 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19778,6 +19807,1002 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="그룹 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8BA565-5E0B-4CEB-8DDD-0E2295896B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="811696" y="17205739"/>
+          <a:ext cx="1710911" cy="1510748"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="직사각형 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5171C3DF-20A2-6B5E-667A-65668F142D49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserServiceTest</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="직사각형 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E9D4D5-9148-C6A6-2641-A8413B1F5EC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="그룹 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9780EB-1BCC-4E9A-8371-73C2F4FA7524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3413263" y="17212089"/>
+          <a:ext cx="1711463" cy="1510748"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="직사각형 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD57CF2-B9F5-D405-0A99-E03DBC5C0938}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserService</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="직사각형 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED3E5B5-3F04-134A-54D5-CA5EC5035DCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="그룹 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DE3454-7385-4AD5-8DD4-6671224EE361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6372087" y="17205739"/>
+          <a:ext cx="1710911" cy="1510748"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="직사각형 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ABDBF4-73C7-AC69-7D8B-066D25A8DEF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDao</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;&lt;interface&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="직사각형 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B904C883-5FC2-0572-CC9C-D115F81C2E75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF49435-6EF9-4153-96F2-C3562523D637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5214178" y="19061320"/>
+          <a:ext cx="1710911" cy="1510747"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="직사각형 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7666D71-11E6-EF81-4137-83639E0B0029}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDaoJdbc</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;&lt;JDBC&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="직사각형 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2BC8D0-CA23-30DF-2D13-43BAE02A534A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4AA3CC-3AF4-4310-A796-08B75E8EDE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7555396" y="19061320"/>
+          <a:ext cx="1710911" cy="1510747"/>
+          <a:chOff x="774700" y="17456150"/>
+          <a:chExt cx="1524000" cy="1079500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350B64EB-47B1-925E-6EC3-5BDA0B9C97F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781821" y="17456150"/>
+            <a:ext cx="1516879" cy="309507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UserDaoJpa</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2216F45E-8E8A-170D-5D53-68E2FD7FA63F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="774700" y="17765657"/>
+            <a:ext cx="1524000" cy="769993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>286565</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="연결선: 꺾임 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DDCE4-9398-450D-4A3E-ABD3D1E583B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6466295" y="18496371"/>
+          <a:ext cx="349250" cy="1151709"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>286566</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="연결선: 꺾임 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D229DD8B-1647-4B40-A206-09A1E2183023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7634696" y="18479679"/>
+          <a:ext cx="349250" cy="1185091"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>72426</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9B02A7-3383-53D4-EFD8-C35E74ACCD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="18354076"/>
+          <a:ext cx="889000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>72426</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7F4BF3-75B2-43CB-9ACF-F023626347F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5118100" y="18354076"/>
+          <a:ext cx="1244600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11934</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B510CD16-29B6-841C-230E-A23C4D4EE0D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="21733566"/>
+          <a:ext cx="5864977" cy="4864652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27036,6 +28061,55 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51141AA-6A17-03A0-6E62-C1D1EA8BFCA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="27889200"/>
+          <a:ext cx="12439650" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -29376,7 +30450,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31017,7 +32091,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -33136,7 +34210,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -34713,22 +35787,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="115"/>
+      <c r="A1" s="120"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="115"/>
+      <c r="A2" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="115"/>
+      <c r="A3" s="120"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="115"/>
+      <c r="A4" s="120"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="120"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="115"/>
+      <c r="A6" s="120"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="B7" s="28" t="s">
@@ -34750,163 +35824,158 @@
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="119"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="117" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="117" t="s">
         <v>521</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="117" t="s">
         <v>655</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="117" t="s">
         <v>745</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="117" t="s">
         <v>818</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="117" t="s">
         <v>899</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
       <c r="I18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="A1:A6"/>
@@ -34914,8 +35983,13 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:H8" location="용어집!A1" display="용어집" xr:uid="{D2CD68FC-9F6D-4DB1-AEC2-2E1660DC0D24}"/>
     <hyperlink ref="C9:H9" location="환경설정_20220525!A1" display="환경설정" xr:uid="{B108AA3C-E664-420E-9B91-BD8BACD03D1C}"/>
@@ -34948,7 +36022,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -34956,7 +36030,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -34965,7 +36039,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -34974,7 +36048,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -34983,7 +36057,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -34992,7 +36066,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -35001,7 +36075,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -36109,7 +37183,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{2A10A973-55E1-49D0-9EFD-541C4C743D54}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{D78613FC-6466-4E93-85E6-A04087E5D7AF}"/>
@@ -36138,7 +37212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -36146,7 +37220,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -36155,7 +37229,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -36164,7 +37238,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -36173,7 +37247,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -36182,7 +37256,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -36191,7 +37265,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -36752,32 +37826,32 @@
     </row>
     <row r="111" spans="3:57" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="D111" s="42"/>
-      <c r="E111" s="134"/>
-      <c r="F111" s="134"/>
-      <c r="G111" s="134"/>
-      <c r="H111" s="134"/>
-      <c r="I111" s="134"/>
-      <c r="J111" s="134"/>
-      <c r="K111" s="145" t="s">
+      <c r="E111" s="142"/>
+      <c r="F111" s="142"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="142"/>
+      <c r="I111" s="142"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="L111" s="134"/>
-      <c r="M111" s="134"/>
-      <c r="N111" s="134"/>
-      <c r="O111" s="134"/>
-      <c r="P111" s="134"/>
-      <c r="Q111" s="134"/>
-      <c r="R111" s="145" t="s">
+      <c r="L111" s="142"/>
+      <c r="M111" s="142"/>
+      <c r="N111" s="142"/>
+      <c r="O111" s="142"/>
+      <c r="P111" s="142"/>
+      <c r="Q111" s="142"/>
+      <c r="R111" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="S111" s="134"/>
-      <c r="T111" s="134"/>
-      <c r="U111" s="134"/>
-      <c r="V111" s="134"/>
-      <c r="W111" s="134"/>
-      <c r="X111" s="134"/>
-      <c r="Y111" s="134"/>
-      <c r="Z111" s="134"/>
+      <c r="S111" s="142"/>
+      <c r="T111" s="142"/>
+      <c r="U111" s="142"/>
+      <c r="V111" s="142"/>
+      <c r="W111" s="142"/>
+      <c r="X111" s="142"/>
+      <c r="Y111" s="142"/>
+      <c r="Z111" s="142"/>
       <c r="AJ111" s="43"/>
       <c r="AK111" s="44"/>
       <c r="AL111" s="44"/>
@@ -36803,34 +37877,34 @@
     </row>
     <row r="112" spans="3:57" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="D112" s="42"/>
-      <c r="E112" s="142" t="s">
+      <c r="E112" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="F112" s="130"/>
-      <c r="G112" s="130"/>
-      <c r="H112" s="130"/>
-      <c r="I112" s="130"/>
-      <c r="J112" s="130"/>
-      <c r="K112" s="143" t="s">
+      <c r="F112" s="135"/>
+      <c r="G112" s="135"/>
+      <c r="H112" s="135"/>
+      <c r="I112" s="135"/>
+      <c r="J112" s="135"/>
+      <c r="K112" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="L112" s="130"/>
-      <c r="M112" s="130"/>
-      <c r="N112" s="130"/>
-      <c r="O112" s="130"/>
-      <c r="P112" s="130"/>
-      <c r="Q112" s="130"/>
-      <c r="R112" s="142" t="s">
+      <c r="L112" s="135"/>
+      <c r="M112" s="135"/>
+      <c r="N112" s="135"/>
+      <c r="O112" s="135"/>
+      <c r="P112" s="135"/>
+      <c r="Q112" s="135"/>
+      <c r="R112" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="S112" s="130"/>
-      <c r="T112" s="130"/>
-      <c r="U112" s="130"/>
-      <c r="V112" s="130"/>
-      <c r="W112" s="130"/>
-      <c r="X112" s="130"/>
-      <c r="Y112" s="130"/>
-      <c r="Z112" s="130"/>
+      <c r="S112" s="135"/>
+      <c r="T112" s="135"/>
+      <c r="U112" s="135"/>
+      <c r="V112" s="135"/>
+      <c r="W112" s="135"/>
+      <c r="X112" s="135"/>
+      <c r="Y112" s="135"/>
+      <c r="Z112" s="135"/>
       <c r="AJ112" s="43"/>
       <c r="AK112" s="44"/>
       <c r="AL112" s="44"/>
@@ -36856,34 +37930,34 @@
     </row>
     <row r="113" spans="4:57" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="D113" s="42"/>
-      <c r="E113" s="142" t="s">
+      <c r="E113" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="F113" s="130"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="130"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="143" t="s">
+      <c r="F113" s="135"/>
+      <c r="G113" s="135"/>
+      <c r="H113" s="135"/>
+      <c r="I113" s="135"/>
+      <c r="J113" s="135"/>
+      <c r="K113" s="152" t="s">
         <v>221</v>
       </c>
-      <c r="L113" s="130"/>
-      <c r="M113" s="130"/>
-      <c r="N113" s="130"/>
-      <c r="O113" s="130"/>
-      <c r="P113" s="130"/>
-      <c r="Q113" s="130"/>
-      <c r="R113" s="142" t="s">
+      <c r="L113" s="135"/>
+      <c r="M113" s="135"/>
+      <c r="N113" s="135"/>
+      <c r="O113" s="135"/>
+      <c r="P113" s="135"/>
+      <c r="Q113" s="135"/>
+      <c r="R113" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="S113" s="130"/>
-      <c r="T113" s="130"/>
-      <c r="U113" s="130"/>
-      <c r="V113" s="130"/>
-      <c r="W113" s="130"/>
-      <c r="X113" s="130"/>
-      <c r="Y113" s="130"/>
-      <c r="Z113" s="130"/>
+      <c r="S113" s="135"/>
+      <c r="T113" s="135"/>
+      <c r="U113" s="135"/>
+      <c r="V113" s="135"/>
+      <c r="W113" s="135"/>
+      <c r="X113" s="135"/>
+      <c r="Y113" s="135"/>
+      <c r="Z113" s="135"/>
       <c r="AJ113" s="43"/>
       <c r="AK113" s="44"/>
       <c r="AL113" s="44"/>
@@ -36908,34 +37982,34 @@
       <c r="BE113" s="44"/>
     </row>
     <row r="114" spans="4:57" ht="18" customHeight="1">
-      <c r="E114" s="142" t="s">
+      <c r="E114" s="151" t="s">
         <v>223</v>
       </c>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
-      <c r="K114" s="142" t="s">
+      <c r="F114" s="135"/>
+      <c r="G114" s="135"/>
+      <c r="H114" s="135"/>
+      <c r="I114" s="135"/>
+      <c r="J114" s="135"/>
+      <c r="K114" s="151" t="s">
         <v>224</v>
       </c>
-      <c r="L114" s="130"/>
-      <c r="M114" s="130"/>
-      <c r="N114" s="130"/>
-      <c r="O114" s="130"/>
-      <c r="P114" s="130"/>
-      <c r="Q114" s="130"/>
-      <c r="R114" s="144" t="s">
+      <c r="L114" s="135"/>
+      <c r="M114" s="135"/>
+      <c r="N114" s="135"/>
+      <c r="O114" s="135"/>
+      <c r="P114" s="135"/>
+      <c r="Q114" s="135"/>
+      <c r="R114" s="153" t="s">
         <v>230</v>
       </c>
-      <c r="S114" s="130"/>
-      <c r="T114" s="130"/>
-      <c r="U114" s="130"/>
-      <c r="V114" s="130"/>
-      <c r="W114" s="130"/>
-      <c r="X114" s="130"/>
-      <c r="Y114" s="130"/>
-      <c r="Z114" s="130"/>
+      <c r="S114" s="135"/>
+      <c r="T114" s="135"/>
+      <c r="U114" s="135"/>
+      <c r="V114" s="135"/>
+      <c r="W114" s="135"/>
+      <c r="X114" s="135"/>
+      <c r="Y114" s="135"/>
+      <c r="Z114" s="135"/>
     </row>
     <row r="116" spans="4:57" ht="18" customHeight="1">
       <c r="D116" s="41" t="s">
@@ -37475,6 +38549,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E113:J113"/>
+    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="R113:Z113"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="R114:Z114"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="E111:J111"/>
     <mergeCell ref="K111:Q111"/>
@@ -37482,14 +38562,8 @@
     <mergeCell ref="E112:J112"/>
     <mergeCell ref="K112:Q112"/>
     <mergeCell ref="R112:Z112"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="K113:Q113"/>
-    <mergeCell ref="R113:Z113"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="K114:Q114"/>
-    <mergeCell ref="R114:Z114"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{FC6239ED-A6DB-4AB6-A962-C734B25C592F}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{7D4A023A-CBFB-42C4-BA38-8B6A739ECB4E}"/>
@@ -37518,7 +38592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -37526,7 +38600,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -37535,7 +38609,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -37544,7 +38618,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -37553,7 +38627,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -37562,7 +38636,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -37571,7 +38645,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -37992,7 +39066,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{307F2389-6BA4-4272-A8AF-7D1252E72EA9}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CBC17982-1273-4B0E-ADCE-5DF8E45E6F6F}"/>
@@ -38021,7 +39095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -38029,7 +39103,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -38038,7 +39112,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -38047,7 +39121,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -38056,7 +39130,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -38065,7 +39139,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -38074,7 +39148,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -38475,7 +39549,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{057E775A-2127-44B2-B002-6E18EAE541A2}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{47ACA240-7E3F-4183-BB9A-F93A936FA921}"/>
@@ -38505,7 +39579,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -38513,7 +39587,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -38522,7 +39596,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -38531,7 +39605,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -38540,7 +39614,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -38549,7 +39623,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -38558,7 +39632,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -38567,7 +39641,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{3AED6F48-AD0B-46BD-A0FC-33500FC52F40}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6D06C2FA-5641-4891-9963-2BA9BFAF32A5}"/>
@@ -38595,7 +39669,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -38603,7 +39677,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -38612,7 +39686,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -38621,7 +39695,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -38630,7 +39704,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -38639,7 +39713,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -38648,7 +39722,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -38657,103 +39731,103 @@
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
     </row>
     <row r="10" spans="1:28" ht="98" customHeight="1">
       <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="124" t="s">
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
     </row>
     <row r="11" spans="1:28" ht="18" customHeight="1">
       <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="125" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
     </row>
     <row r="12" spans="1:28" ht="45" customHeight="1">
       <c r="C12" s="24">
@@ -38771,23 +39845,23 @@
       <c r="K12" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="123"/>
     </row>
     <row r="13" spans="1:28" ht="36.5" customHeight="1">
       <c r="C13" s="24">
@@ -38805,310 +39879,290 @@
       <c r="K13" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="125"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
     </row>
     <row r="14" spans="1:28" ht="53" customHeight="1">
       <c r="C14" s="24">
         <v>5</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="126"/>
       <c r="K14" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
     </row>
     <row r="15" spans="1:28" ht="44.5" customHeight="1">
       <c r="C15" s="24">
         <v>6</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="126"/>
       <c r="K15" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
     </row>
     <row r="16" spans="1:28" ht="18" customHeight="1">
       <c r="C16" s="24"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="123"/>
     </row>
     <row r="17" spans="3:28" ht="18" customHeight="1">
       <c r="C17" s="24"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="123"/>
     </row>
     <row r="18" spans="3:28" ht="18" customHeight="1">
       <c r="C18" s="24"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="125"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="123"/>
     </row>
     <row r="19" spans="3:28" ht="18" customHeight="1">
       <c r="C19" s="24"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="125"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
     </row>
     <row r="20" spans="3:28" ht="18" customHeight="1">
       <c r="C20" s="24"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="125"/>
-      <c r="AB20" s="125"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
     </row>
     <row r="21" spans="3:28" ht="18" customHeight="1">
       <c r="C21" s="24"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
-      <c r="AB21" s="125"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="123"/>
     </row>
     <row r="22" spans="3:28" ht="18" customHeight="1">
       <c r="C22" s="24"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K18:AB18"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="K20:AB20"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="K22:AB22"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K15:AB15"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K17:AB17"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K12:AB12"/>
-    <mergeCell ref="K13:AB13"/>
-    <mergeCell ref="K14:AB14"/>
-    <mergeCell ref="D15:J15"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="D9:J9"/>
@@ -39116,8 +40170,28 @@
     <mergeCell ref="K9:AB9"/>
     <mergeCell ref="K10:AB10"/>
     <mergeCell ref="K11:AB11"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K12:AB12"/>
+    <mergeCell ref="K13:AB13"/>
+    <mergeCell ref="K14:AB14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K15:AB15"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K17:AB17"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K18:AB18"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="K20:AB20"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="K22:AB22"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{94041EF1-99F6-496C-A4DF-B01D58E2F913}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{C1A694DC-C5A9-44C2-B577-9D8B5F7926C6}"/>
@@ -39132,10 +40206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83392515-3AFC-4B6B-9454-234651098074}">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54"/>
+    <sheetView showGridLines="0" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB118" sqref="AB118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -39145,7 +40219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -39153,7 +40227,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -39162,7 +40236,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -39171,7 +40245,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -39180,7 +40254,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -39189,7 +40263,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -39198,7 +40272,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -39336,166 +40410,166 @@
       </c>
     </row>
     <row r="21" spans="5:24" ht="18" customHeight="1">
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="141" t="s">
         <v>881</v>
       </c>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="133" t="s">
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="141" t="s">
         <v>888</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="133" t="s">
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="141" t="s">
         <v>882</v>
       </c>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
-      <c r="X21" s="134"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="142"/>
     </row>
     <row r="22" spans="5:24" ht="18" customHeight="1">
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="138" t="s">
         <v>883</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="129" t="s">
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="138" t="s">
         <v>889</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="131" t="s">
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="139" t="s">
         <v>894</v>
       </c>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
     </row>
     <row r="23" spans="5:24" ht="18" customHeight="1">
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="138" t="s">
         <v>884</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="129" t="s">
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="138" t="s">
         <v>890</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="131" t="s">
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="139" t="s">
         <v>895</v>
       </c>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
     </row>
     <row r="24" spans="5:24" ht="18" customHeight="1">
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="138" t="s">
         <v>885</v>
       </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="129" t="s">
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="138" t="s">
         <v>891</v>
       </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="131" t="s">
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="139" t="s">
         <v>895</v>
       </c>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
     </row>
     <row r="25" spans="5:24" ht="18" customHeight="1">
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="138" t="s">
         <v>886</v>
       </c>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="149" t="s">
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="134" t="s">
         <v>914</v>
       </c>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="131" t="s">
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="139" t="s">
         <v>896</v>
       </c>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
     </row>
     <row r="26" spans="5:24" ht="18" customHeight="1">
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="138" t="s">
         <v>887</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="129" t="s">
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="138" t="s">
         <v>893</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131" t="s">
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="139" t="s">
         <v>897</v>
       </c>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
     </row>
     <row r="28" spans="5:24" ht="18" customHeight="1">
       <c r="F28" s="39" t="s">
@@ -39506,7 +40580,7 @@
       <c r="F29" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="U29" s="146" t="s">
+      <c r="U29" s="112" t="s">
         <v>905</v>
       </c>
     </row>
@@ -39524,7 +40598,7 @@
       <c r="F32" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="U32" s="146" t="s">
+      <c r="U32" s="112" t="s">
         <v>906</v>
       </c>
     </row>
@@ -39542,258 +40616,242 @@
       </c>
     </row>
     <row r="37" spans="6:20" ht="18" customHeight="1">
-      <c r="F37" s="147" t="s">
+      <c r="F37" s="113" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="38" spans="6:20" ht="18" customHeight="1">
-      <c r="F38" s="148"/>
+      <c r="F38" s="114"/>
     </row>
     <row r="39" spans="6:20" ht="18" customHeight="1">
-      <c r="F39" s="147" t="s">
+      <c r="F39" s="113" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="40" spans="6:20" ht="18" customHeight="1">
-      <c r="F40" s="147" t="s">
+      <c r="F40" s="113" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="41" spans="6:20" ht="18" customHeight="1">
-      <c r="F41" s="147" t="s">
+      <c r="F41" s="113" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="42" spans="6:20" ht="18" customHeight="1">
-      <c r="F42" s="147" t="s">
+      <c r="F42" s="113" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="43" spans="6:20" ht="18" customHeight="1">
-      <c r="F43" s="147" t="s">
+      <c r="F43" s="113" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="45" spans="6:20" ht="18" customHeight="1">
-      <c r="F45" s="149" t="s">
+      <c r="F45" s="134" t="s">
         <v>915</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="149" t="s">
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="134" t="s">
         <v>916</v>
       </c>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="149" t="s">
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="134" t="s">
         <v>917</v>
       </c>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="130"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="130"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
     </row>
     <row r="46" spans="6:20" ht="18" customHeight="1">
-      <c r="F46" s="150" t="s">
+      <c r="F46" s="136" t="s">
         <v>918</v>
       </c>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="149" t="s">
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="134" t="s">
         <v>923</v>
       </c>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="149" t="s">
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
+      <c r="N46" s="135"/>
+      <c r="O46" s="135"/>
+      <c r="P46" s="134" t="s">
         <v>930</v>
       </c>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
+      <c r="Q46" s="135"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
     </row>
     <row r="47" spans="6:20" ht="18" customHeight="1">
-      <c r="F47" s="150" t="s">
+      <c r="F47" s="136" t="s">
         <v>919</v>
       </c>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="149" t="s">
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="134" t="s">
         <v>924</v>
       </c>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="149" t="s">
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="134" t="s">
         <v>924</v>
       </c>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="130"/>
-      <c r="S47" s="130"/>
-      <c r="T47" s="130"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="135"/>
+      <c r="S47" s="135"/>
+      <c r="T47" s="135"/>
     </row>
     <row r="48" spans="6:20" ht="18" customHeight="1">
-      <c r="F48" s="150" t="s">
+      <c r="F48" s="136" t="s">
         <v>920</v>
       </c>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="149" t="s">
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="134" t="s">
         <v>931</v>
       </c>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
     </row>
     <row r="49" spans="6:20" ht="18" customHeight="1">
-      <c r="F49" s="150" t="s">
+      <c r="F49" s="136" t="s">
         <v>921</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="149" t="s">
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="134" t="s">
         <v>925</v>
       </c>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="149" t="s">
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="134" t="s">
         <v>932</v>
       </c>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
     </row>
     <row r="50" spans="6:20" ht="18" customHeight="1">
-      <c r="F50" s="150" t="s">
+      <c r="F50" s="136" t="s">
         <v>922</v>
       </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="149" t="s">
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="134" t="s">
         <v>933</v>
       </c>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="130"/>
-      <c r="S50" s="130"/>
-      <c r="T50" s="130"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
     </row>
     <row r="51" spans="6:20" ht="18" customHeight="1">
-      <c r="F51" s="149" t="s">
+      <c r="F51" s="134" t="s">
         <v>929</v>
       </c>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="149" t="s">
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="134" t="s">
         <v>926</v>
       </c>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="130"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
     </row>
     <row r="52" spans="6:20" ht="18" customHeight="1">
-      <c r="F52" s="149" t="s">
+      <c r="F52" s="134" t="s">
         <v>928</v>
       </c>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="149" t="s">
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="134" t="s">
         <v>927</v>
       </c>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="135"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="135"/>
     </row>
     <row r="53" spans="6:20" ht="18" customHeight="1">
-      <c r="R53" s="146"/>
+      <c r="R53" s="112"/>
     </row>
     <row r="54" spans="6:20" ht="18" customHeight="1">
-      <c r="R54" s="146"/>
+      <c r="R54" s="112"/>
+    </row>
+    <row r="75" spans="3:10" ht="18" customHeight="1">
+      <c r="C75" s="154" t="s">
+        <v>958</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="95" spans="5:8" ht="18" customHeight="1">
+      <c r="E95" s="156" t="s">
+        <v>959</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:X25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:X26"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:X23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:X24"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="K21:N21"/>
@@ -39801,8 +40859,44 @@
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="K22:N22"/>
     <mergeCell ref="O22:X22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:X23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:X24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:X25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:X26"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="P52:T52"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{2DB84741-75D5-49DB-9EBF-CF9B6C459B5F}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{DAF3AB30-0910-4CB4-AC40-DC3C88280FB9}"/>
@@ -39820,7 +40914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357412D-6A40-499B-87E4-4806E9233EDD}">
   <dimension ref="A1:AV133"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -39831,7 +40925,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -39839,7 +40933,7 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -39848,7 +40942,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -39857,7 +40951,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -39866,7 +40960,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -39875,7 +40969,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -39884,7 +40978,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -40645,174 +41739,169 @@
       <c r="AG127" s="17"/>
     </row>
     <row r="128" spans="3:33" ht="18" customHeight="1">
-      <c r="F128" s="133" t="s">
+      <c r="F128" s="141" t="s">
         <v>881</v>
       </c>
-      <c r="G128" s="134"/>
-      <c r="H128" s="134"/>
-      <c r="I128" s="134"/>
-      <c r="J128" s="134"/>
-      <c r="K128" s="133" t="s">
+      <c r="G128" s="142"/>
+      <c r="H128" s="142"/>
+      <c r="I128" s="142"/>
+      <c r="J128" s="142"/>
+      <c r="K128" s="141" t="s">
         <v>888</v>
       </c>
-      <c r="L128" s="134"/>
-      <c r="M128" s="134"/>
-      <c r="N128" s="134"/>
-      <c r="O128" s="133" t="s">
+      <c r="L128" s="142"/>
+      <c r="M128" s="142"/>
+      <c r="N128" s="142"/>
+      <c r="O128" s="141" t="s">
         <v>882</v>
       </c>
-      <c r="P128" s="134"/>
-      <c r="Q128" s="134"/>
-      <c r="R128" s="134"/>
-      <c r="S128" s="134"/>
-      <c r="T128" s="134"/>
-      <c r="U128" s="134"/>
-      <c r="V128" s="134"/>
-      <c r="W128" s="134"/>
-      <c r="X128" s="134"/>
+      <c r="P128" s="142"/>
+      <c r="Q128" s="142"/>
+      <c r="R128" s="142"/>
+      <c r="S128" s="142"/>
+      <c r="T128" s="142"/>
+      <c r="U128" s="142"/>
+      <c r="V128" s="142"/>
+      <c r="W128" s="142"/>
+      <c r="X128" s="142"/>
     </row>
     <row r="129" spans="6:24" ht="18" customHeight="1">
-      <c r="F129" s="129" t="s">
+      <c r="F129" s="138" t="s">
         <v>883</v>
       </c>
-      <c r="G129" s="130"/>
-      <c r="H129" s="130"/>
-      <c r="I129" s="130"/>
-      <c r="J129" s="130"/>
-      <c r="K129" s="129" t="s">
+      <c r="G129" s="135"/>
+      <c r="H129" s="135"/>
+      <c r="I129" s="135"/>
+      <c r="J129" s="135"/>
+      <c r="K129" s="138" t="s">
         <v>889</v>
       </c>
-      <c r="L129" s="130"/>
-      <c r="M129" s="130"/>
-      <c r="N129" s="130"/>
-      <c r="O129" s="131" t="s">
+      <c r="L129" s="135"/>
+      <c r="M129" s="135"/>
+      <c r="N129" s="135"/>
+      <c r="O129" s="139" t="s">
         <v>894</v>
       </c>
-      <c r="P129" s="132"/>
-      <c r="Q129" s="132"/>
-      <c r="R129" s="132"/>
-      <c r="S129" s="132"/>
-      <c r="T129" s="132"/>
-      <c r="U129" s="132"/>
-      <c r="V129" s="132"/>
-      <c r="W129" s="132"/>
-      <c r="X129" s="132"/>
+      <c r="P129" s="140"/>
+      <c r="Q129" s="140"/>
+      <c r="R129" s="140"/>
+      <c r="S129" s="140"/>
+      <c r="T129" s="140"/>
+      <c r="U129" s="140"/>
+      <c r="V129" s="140"/>
+      <c r="W129" s="140"/>
+      <c r="X129" s="140"/>
     </row>
     <row r="130" spans="6:24" ht="18" customHeight="1">
-      <c r="F130" s="129" t="s">
+      <c r="F130" s="138" t="s">
         <v>884</v>
       </c>
-      <c r="G130" s="130"/>
-      <c r="H130" s="130"/>
-      <c r="I130" s="130"/>
-      <c r="J130" s="130"/>
-      <c r="K130" s="129" t="s">
+      <c r="G130" s="135"/>
+      <c r="H130" s="135"/>
+      <c r="I130" s="135"/>
+      <c r="J130" s="135"/>
+      <c r="K130" s="138" t="s">
         <v>890</v>
       </c>
-      <c r="L130" s="130"/>
-      <c r="M130" s="130"/>
-      <c r="N130" s="130"/>
-      <c r="O130" s="131" t="s">
+      <c r="L130" s="135"/>
+      <c r="M130" s="135"/>
+      <c r="N130" s="135"/>
+      <c r="O130" s="139" t="s">
         <v>895</v>
       </c>
-      <c r="P130" s="132"/>
-      <c r="Q130" s="132"/>
-      <c r="R130" s="132"/>
-      <c r="S130" s="132"/>
-      <c r="T130" s="132"/>
-      <c r="U130" s="132"/>
-      <c r="V130" s="132"/>
-      <c r="W130" s="132"/>
-      <c r="X130" s="132"/>
+      <c r="P130" s="140"/>
+      <c r="Q130" s="140"/>
+      <c r="R130" s="140"/>
+      <c r="S130" s="140"/>
+      <c r="T130" s="140"/>
+      <c r="U130" s="140"/>
+      <c r="V130" s="140"/>
+      <c r="W130" s="140"/>
+      <c r="X130" s="140"/>
     </row>
     <row r="131" spans="6:24" ht="18" customHeight="1">
-      <c r="F131" s="129" t="s">
+      <c r="F131" s="138" t="s">
         <v>885</v>
       </c>
-      <c r="G131" s="130"/>
-      <c r="H131" s="130"/>
-      <c r="I131" s="130"/>
-      <c r="J131" s="130"/>
-      <c r="K131" s="129" t="s">
+      <c r="G131" s="135"/>
+      <c r="H131" s="135"/>
+      <c r="I131" s="135"/>
+      <c r="J131" s="135"/>
+      <c r="K131" s="138" t="s">
         <v>891</v>
       </c>
-      <c r="L131" s="130"/>
-      <c r="M131" s="130"/>
-      <c r="N131" s="130"/>
-      <c r="O131" s="131" t="s">
+      <c r="L131" s="135"/>
+      <c r="M131" s="135"/>
+      <c r="N131" s="135"/>
+      <c r="O131" s="139" t="s">
         <v>895</v>
       </c>
-      <c r="P131" s="132"/>
-      <c r="Q131" s="132"/>
-      <c r="R131" s="132"/>
-      <c r="S131" s="132"/>
-      <c r="T131" s="132"/>
-      <c r="U131" s="132"/>
-      <c r="V131" s="132"/>
-      <c r="W131" s="132"/>
-      <c r="X131" s="132"/>
+      <c r="P131" s="140"/>
+      <c r="Q131" s="140"/>
+      <c r="R131" s="140"/>
+      <c r="S131" s="140"/>
+      <c r="T131" s="140"/>
+      <c r="U131" s="140"/>
+      <c r="V131" s="140"/>
+      <c r="W131" s="140"/>
+      <c r="X131" s="140"/>
     </row>
     <row r="132" spans="6:24" ht="18" customHeight="1">
-      <c r="F132" s="129" t="s">
+      <c r="F132" s="138" t="s">
         <v>886</v>
       </c>
-      <c r="G132" s="130"/>
-      <c r="H132" s="130"/>
-      <c r="I132" s="130"/>
-      <c r="J132" s="130"/>
-      <c r="K132" s="129" t="s">
+      <c r="G132" s="135"/>
+      <c r="H132" s="135"/>
+      <c r="I132" s="135"/>
+      <c r="J132" s="135"/>
+      <c r="K132" s="138" t="s">
         <v>892</v>
       </c>
-      <c r="L132" s="130"/>
-      <c r="M132" s="130"/>
-      <c r="N132" s="130"/>
-      <c r="O132" s="131" t="s">
+      <c r="L132" s="135"/>
+      <c r="M132" s="135"/>
+      <c r="N132" s="135"/>
+      <c r="O132" s="139" t="s">
         <v>896</v>
       </c>
-      <c r="P132" s="132"/>
-      <c r="Q132" s="132"/>
-      <c r="R132" s="132"/>
-      <c r="S132" s="132"/>
-      <c r="T132" s="132"/>
-      <c r="U132" s="132"/>
-      <c r="V132" s="132"/>
-      <c r="W132" s="132"/>
-      <c r="X132" s="132"/>
+      <c r="P132" s="140"/>
+      <c r="Q132" s="140"/>
+      <c r="R132" s="140"/>
+      <c r="S132" s="140"/>
+      <c r="T132" s="140"/>
+      <c r="U132" s="140"/>
+      <c r="V132" s="140"/>
+      <c r="W132" s="140"/>
+      <c r="X132" s="140"/>
     </row>
     <row r="133" spans="6:24" ht="18" customHeight="1">
-      <c r="F133" s="129" t="s">
+      <c r="F133" s="138" t="s">
         <v>887</v>
       </c>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="129" t="s">
+      <c r="G133" s="135"/>
+      <c r="H133" s="135"/>
+      <c r="I133" s="135"/>
+      <c r="J133" s="135"/>
+      <c r="K133" s="138" t="s">
         <v>893</v>
       </c>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="131" t="s">
+      <c r="L133" s="135"/>
+      <c r="M133" s="135"/>
+      <c r="N133" s="135"/>
+      <c r="O133" s="139" t="s">
         <v>897</v>
       </c>
-      <c r="P133" s="132"/>
-      <c r="Q133" s="132"/>
-      <c r="R133" s="132"/>
-      <c r="S133" s="132"/>
-      <c r="T133" s="132"/>
-      <c r="U133" s="132"/>
-      <c r="V133" s="132"/>
-      <c r="W133" s="132"/>
-      <c r="X133" s="132"/>
+      <c r="P133" s="140"/>
+      <c r="Q133" s="140"/>
+      <c r="R133" s="140"/>
+      <c r="S133" s="140"/>
+      <c r="T133" s="140"/>
+      <c r="U133" s="140"/>
+      <c r="V133" s="140"/>
+      <c r="W133" s="140"/>
+      <c r="X133" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="F128:J128"/>
-    <mergeCell ref="O128:X128"/>
-    <mergeCell ref="F129:J129"/>
-    <mergeCell ref="O129:X129"/>
     <mergeCell ref="F133:J133"/>
     <mergeCell ref="O133:X133"/>
     <mergeCell ref="K128:N128"/>
@@ -40827,8 +41916,13 @@
     <mergeCell ref="O131:X131"/>
     <mergeCell ref="F132:J132"/>
     <mergeCell ref="O132:X132"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="F128:J128"/>
+    <mergeCell ref="O128:X128"/>
+    <mergeCell ref="F129:J129"/>
+    <mergeCell ref="O129:X129"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{79139BBA-DDB9-4DED-897B-D69DDC80C850}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{264D579F-CB71-4640-9FA5-ACAF5EB5C107}"/>
@@ -40846,8 +41940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAFA710-28C0-4141-8C6B-E8FF694A5C38}">
   <dimension ref="A1:AF154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="AA140" sqref="AA140"/>
+    <sheetView showGridLines="0" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="AE80" sqref="AE80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -40857,7 +41951,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -40865,7 +41959,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -40874,7 +41968,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -40883,7 +41977,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -40892,7 +41986,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -40901,7 +41995,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -40910,7 +42004,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -41232,120 +42326,120 @@
       </c>
     </row>
     <row r="70" spans="4:27" ht="18" customHeight="1">
-      <c r="E70" s="137" t="s">
+      <c r="E70" s="146" t="s">
         <v>774</v>
       </c>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="137" t="s">
+      <c r="F70" s="142"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="146" t="s">
         <v>701</v>
       </c>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
-      <c r="N70" s="134"/>
-      <c r="O70" s="134"/>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="134"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="134"/>
-      <c r="W70" s="134"/>
-      <c r="X70" s="134"/>
-      <c r="Y70" s="134"/>
-      <c r="Z70" s="134"/>
-      <c r="AA70" s="134"/>
+      <c r="L70" s="142"/>
+      <c r="M70" s="142"/>
+      <c r="N70" s="142"/>
+      <c r="O70" s="142"/>
+      <c r="P70" s="142"/>
+      <c r="Q70" s="142"/>
+      <c r="R70" s="142"/>
+      <c r="S70" s="142"/>
+      <c r="T70" s="142"/>
+      <c r="U70" s="142"/>
+      <c r="V70" s="142"/>
+      <c r="W70" s="142"/>
+      <c r="X70" s="142"/>
+      <c r="Y70" s="142"/>
+      <c r="Z70" s="142"/>
+      <c r="AA70" s="142"/>
     </row>
     <row r="71" spans="4:27" ht="48.5" customHeight="1">
-      <c r="E71" s="135" t="s">
+      <c r="E71" s="144" t="s">
         <v>775</v>
       </c>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="136" t="s">
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="155" t="s">
         <v>777</v>
       </c>
-      <c r="L71" s="132"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="132"/>
-      <c r="Q71" s="132"/>
-      <c r="R71" s="132"/>
-      <c r="S71" s="132"/>
-      <c r="T71" s="132"/>
-      <c r="U71" s="132"/>
-      <c r="V71" s="132"/>
-      <c r="W71" s="132"/>
-      <c r="X71" s="132"/>
-      <c r="Y71" s="132"/>
-      <c r="Z71" s="132"/>
-      <c r="AA71" s="132"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="140"/>
+      <c r="O71" s="140"/>
+      <c r="P71" s="140"/>
+      <c r="Q71" s="140"/>
+      <c r="R71" s="140"/>
+      <c r="S71" s="140"/>
+      <c r="T71" s="140"/>
+      <c r="U71" s="140"/>
+      <c r="V71" s="140"/>
+      <c r="W71" s="140"/>
+      <c r="X71" s="140"/>
+      <c r="Y71" s="140"/>
+      <c r="Z71" s="140"/>
+      <c r="AA71" s="140"/>
     </row>
     <row r="72" spans="4:27" ht="39" customHeight="1">
-      <c r="E72" s="135" t="s">
+      <c r="E72" s="144" t="s">
         <v>778</v>
       </c>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
-      <c r="K72" s="136" t="s">
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="147" t="s">
         <v>779</v>
       </c>
-      <c r="L72" s="132"/>
-      <c r="M72" s="132"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="132"/>
-      <c r="P72" s="132"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="132"/>
-      <c r="S72" s="132"/>
-      <c r="T72" s="132"/>
-      <c r="U72" s="132"/>
-      <c r="V72" s="132"/>
-      <c r="W72" s="132"/>
-      <c r="X72" s="132"/>
-      <c r="Y72" s="132"/>
-      <c r="Z72" s="132"/>
-      <c r="AA72" s="132"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="140"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="140"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="140"/>
+      <c r="X72" s="140"/>
+      <c r="Y72" s="140"/>
+      <c r="Z72" s="140"/>
+      <c r="AA72" s="140"/>
     </row>
     <row r="73" spans="4:27" ht="33.5" customHeight="1">
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="144" t="s">
         <v>780</v>
       </c>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="138" t="s">
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="145" t="s">
         <v>781</v>
       </c>
-      <c r="L73" s="132"/>
-      <c r="M73" s="132"/>
-      <c r="N73" s="132"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="132"/>
-      <c r="Q73" s="132"/>
-      <c r="R73" s="132"/>
-      <c r="S73" s="132"/>
-      <c r="T73" s="132"/>
-      <c r="U73" s="132"/>
-      <c r="V73" s="132"/>
-      <c r="W73" s="132"/>
-      <c r="X73" s="132"/>
-      <c r="Y73" s="132"/>
-      <c r="Z73" s="132"/>
-      <c r="AA73" s="132"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="140"/>
+      <c r="R73" s="140"/>
+      <c r="S73" s="140"/>
+      <c r="T73" s="140"/>
+      <c r="U73" s="140"/>
+      <c r="V73" s="140"/>
+      <c r="W73" s="140"/>
+      <c r="X73" s="140"/>
+      <c r="Y73" s="140"/>
+      <c r="Z73" s="140"/>
+      <c r="AA73" s="140"/>
     </row>
     <row r="76" spans="4:27" ht="18" customHeight="1">
       <c r="E76" s="101" t="s">
@@ -41691,160 +42785,172 @@
       </c>
     </row>
     <row r="151" spans="4:32" ht="18" customHeight="1">
-      <c r="D151" s="137" t="s">
+      <c r="D151" s="146" t="s">
         <v>774</v>
       </c>
-      <c r="E151" s="134"/>
-      <c r="F151" s="134"/>
-      <c r="G151" s="134"/>
-      <c r="H151" s="134"/>
-      <c r="I151" s="137" t="s">
+      <c r="E151" s="142"/>
+      <c r="F151" s="142"/>
+      <c r="G151" s="142"/>
+      <c r="H151" s="142"/>
+      <c r="I151" s="146" t="s">
         <v>800</v>
       </c>
-      <c r="J151" s="134"/>
-      <c r="K151" s="134"/>
-      <c r="L151" s="134"/>
-      <c r="M151" s="134"/>
-      <c r="N151" s="134"/>
-      <c r="O151" s="134"/>
-      <c r="P151" s="134"/>
-      <c r="Q151" s="134"/>
-      <c r="R151" s="134"/>
-      <c r="S151" s="134"/>
-      <c r="T151" s="134"/>
-      <c r="U151" s="134"/>
-      <c r="V151" s="134"/>
-      <c r="W151" s="134"/>
-      <c r="X151" s="134"/>
-      <c r="Y151" s="134"/>
-      <c r="Z151" s="134"/>
-      <c r="AA151" s="137" t="s">
+      <c r="J151" s="142"/>
+      <c r="K151" s="142"/>
+      <c r="L151" s="142"/>
+      <c r="M151" s="142"/>
+      <c r="N151" s="142"/>
+      <c r="O151" s="142"/>
+      <c r="P151" s="142"/>
+      <c r="Q151" s="142"/>
+      <c r="R151" s="142"/>
+      <c r="S151" s="142"/>
+      <c r="T151" s="142"/>
+      <c r="U151" s="142"/>
+      <c r="V151" s="142"/>
+      <c r="W151" s="142"/>
+      <c r="X151" s="142"/>
+      <c r="Y151" s="142"/>
+      <c r="Z151" s="142"/>
+      <c r="AA151" s="146" t="s">
         <v>801</v>
       </c>
-      <c r="AB151" s="134"/>
-      <c r="AC151" s="134"/>
-      <c r="AD151" s="134"/>
-      <c r="AE151" s="134"/>
+      <c r="AB151" s="142"/>
+      <c r="AC151" s="142"/>
+      <c r="AD151" s="142"/>
+      <c r="AE151" s="142"/>
     </row>
     <row r="152" spans="4:32" ht="18" customHeight="1">
-      <c r="D152" s="135" t="s">
+      <c r="D152" s="144" t="s">
         <v>802</v>
       </c>
-      <c r="E152" s="132"/>
-      <c r="F152" s="132"/>
-      <c r="G152" s="132"/>
-      <c r="H152" s="132"/>
-      <c r="I152" s="139" t="s">
+      <c r="E152" s="140"/>
+      <c r="F152" s="140"/>
+      <c r="G152" s="140"/>
+      <c r="H152" s="140"/>
+      <c r="I152" s="143" t="s">
         <v>814</v>
       </c>
-      <c r="J152" s="132"/>
-      <c r="K152" s="132"/>
-      <c r="L152" s="132"/>
-      <c r="M152" s="132"/>
-      <c r="N152" s="132"/>
-      <c r="O152" s="132"/>
-      <c r="P152" s="132"/>
-      <c r="Q152" s="132"/>
-      <c r="R152" s="132"/>
-      <c r="S152" s="132"/>
-      <c r="T152" s="132"/>
-      <c r="U152" s="132"/>
-      <c r="V152" s="132"/>
-      <c r="W152" s="132"/>
-      <c r="X152" s="132"/>
-      <c r="Y152" s="132"/>
-      <c r="Z152" s="132"/>
-      <c r="AA152" s="139" t="s">
+      <c r="J152" s="140"/>
+      <c r="K152" s="140"/>
+      <c r="L152" s="140"/>
+      <c r="M152" s="140"/>
+      <c r="N152" s="140"/>
+      <c r="O152" s="140"/>
+      <c r="P152" s="140"/>
+      <c r="Q152" s="140"/>
+      <c r="R152" s="140"/>
+      <c r="S152" s="140"/>
+      <c r="T152" s="140"/>
+      <c r="U152" s="140"/>
+      <c r="V152" s="140"/>
+      <c r="W152" s="140"/>
+      <c r="X152" s="140"/>
+      <c r="Y152" s="140"/>
+      <c r="Z152" s="140"/>
+      <c r="AA152" s="143" t="s">
         <v>808</v>
       </c>
-      <c r="AB152" s="132"/>
-      <c r="AC152" s="132"/>
-      <c r="AD152" s="132"/>
-      <c r="AE152" s="132"/>
+      <c r="AB152" s="140"/>
+      <c r="AC152" s="140"/>
+      <c r="AD152" s="140"/>
+      <c r="AE152" s="140"/>
       <c r="AF152" s="95" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="153" spans="4:32" ht="18" customHeight="1">
-      <c r="D153" s="135" t="s">
+      <c r="D153" s="144" t="s">
         <v>804</v>
       </c>
-      <c r="E153" s="132"/>
-      <c r="F153" s="132"/>
-      <c r="G153" s="132"/>
-      <c r="H153" s="132"/>
-      <c r="I153" s="139" t="s">
+      <c r="E153" s="140"/>
+      <c r="F153" s="140"/>
+      <c r="G153" s="140"/>
+      <c r="H153" s="140"/>
+      <c r="I153" s="143" t="s">
         <v>806</v>
       </c>
-      <c r="J153" s="132"/>
-      <c r="K153" s="132"/>
-      <c r="L153" s="132"/>
-      <c r="M153" s="132"/>
-      <c r="N153" s="132"/>
-      <c r="O153" s="132"/>
-      <c r="P153" s="132"/>
-      <c r="Q153" s="132"/>
-      <c r="R153" s="132"/>
-      <c r="S153" s="132"/>
-      <c r="T153" s="132"/>
-      <c r="U153" s="132"/>
-      <c r="V153" s="132"/>
-      <c r="W153" s="132"/>
-      <c r="X153" s="132"/>
-      <c r="Y153" s="132"/>
-      <c r="Z153" s="132"/>
-      <c r="AA153" s="139" t="s">
+      <c r="J153" s="140"/>
+      <c r="K153" s="140"/>
+      <c r="L153" s="140"/>
+      <c r="M153" s="140"/>
+      <c r="N153" s="140"/>
+      <c r="O153" s="140"/>
+      <c r="P153" s="140"/>
+      <c r="Q153" s="140"/>
+      <c r="R153" s="140"/>
+      <c r="S153" s="140"/>
+      <c r="T153" s="140"/>
+      <c r="U153" s="140"/>
+      <c r="V153" s="140"/>
+      <c r="W153" s="140"/>
+      <c r="X153" s="140"/>
+      <c r="Y153" s="140"/>
+      <c r="Z153" s="140"/>
+      <c r="AA153" s="143" t="s">
         <v>809</v>
       </c>
-      <c r="AB153" s="132"/>
-      <c r="AC153" s="132"/>
-      <c r="AD153" s="132"/>
-      <c r="AE153" s="132"/>
+      <c r="AB153" s="140"/>
+      <c r="AC153" s="140"/>
+      <c r="AD153" s="140"/>
+      <c r="AE153" s="140"/>
       <c r="AF153" s="95" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="154" spans="4:32" ht="18" customHeight="1">
-      <c r="D154" s="135" t="s">
+      <c r="D154" s="144" t="s">
         <v>805</v>
       </c>
-      <c r="E154" s="132"/>
-      <c r="F154" s="132"/>
-      <c r="G154" s="132"/>
-      <c r="H154" s="132"/>
-      <c r="I154" s="139" t="s">
+      <c r="E154" s="140"/>
+      <c r="F154" s="140"/>
+      <c r="G154" s="140"/>
+      <c r="H154" s="140"/>
+      <c r="I154" s="143" t="s">
         <v>807</v>
       </c>
-      <c r="J154" s="132"/>
-      <c r="K154" s="132"/>
-      <c r="L154" s="132"/>
-      <c r="M154" s="132"/>
-      <c r="N154" s="132"/>
-      <c r="O154" s="132"/>
-      <c r="P154" s="132"/>
-      <c r="Q154" s="132"/>
-      <c r="R154" s="132"/>
-      <c r="S154" s="132"/>
-      <c r="T154" s="132"/>
-      <c r="U154" s="132"/>
-      <c r="V154" s="132"/>
-      <c r="W154" s="132"/>
-      <c r="X154" s="132"/>
-      <c r="Y154" s="132"/>
-      <c r="Z154" s="132"/>
-      <c r="AA154" s="139" t="s">
+      <c r="J154" s="140"/>
+      <c r="K154" s="140"/>
+      <c r="L154" s="140"/>
+      <c r="M154" s="140"/>
+      <c r="N154" s="140"/>
+      <c r="O154" s="140"/>
+      <c r="P154" s="140"/>
+      <c r="Q154" s="140"/>
+      <c r="R154" s="140"/>
+      <c r="S154" s="140"/>
+      <c r="T154" s="140"/>
+      <c r="U154" s="140"/>
+      <c r="V154" s="140"/>
+      <c r="W154" s="140"/>
+      <c r="X154" s="140"/>
+      <c r="Y154" s="140"/>
+      <c r="Z154" s="140"/>
+      <c r="AA154" s="143" t="s">
         <v>810</v>
       </c>
-      <c r="AB154" s="132"/>
-      <c r="AC154" s="132"/>
-      <c r="AD154" s="132"/>
-      <c r="AE154" s="132"/>
+      <c r="AB154" s="140"/>
+      <c r="AC154" s="140"/>
+      <c r="AD154" s="140"/>
+      <c r="AE154" s="140"/>
       <c r="AF154" s="95" t="s">
         <v>813</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:AA72"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="K70:AA70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:AA71"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="K73:AA73"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="I151:Z151"/>
+    <mergeCell ref="AA151:AE151"/>
     <mergeCell ref="AA152:AE152"/>
     <mergeCell ref="AA153:AE153"/>
     <mergeCell ref="AA154:AE154"/>
@@ -41854,20 +42960,8 @@
     <mergeCell ref="I153:Z153"/>
     <mergeCell ref="D154:H154"/>
     <mergeCell ref="I154:Z154"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="K73:AA73"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="I151:Z151"/>
-    <mergeCell ref="AA151:AE151"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:AA72"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="K70:AA70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:AA71"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9FA50234-D3E4-4A4D-A7E4-507B5F86559B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{46D47B1F-BA0F-4740-831B-610535B45B36}"/>
@@ -41896,7 +42990,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -41904,7 +42998,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -41913,7 +43007,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -41922,7 +43016,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -41931,7 +43025,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -41940,7 +43034,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -41949,7 +43043,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -42041,108 +43135,108 @@
       </c>
     </row>
     <row r="44" spans="6:25" ht="18" customHeight="1">
-      <c r="F44" s="140" t="s">
+      <c r="F44" s="149" t="s">
         <v>533</v>
       </c>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="140" t="s">
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="149" t="s">
         <v>534</v>
       </c>
-      <c r="O44" s="134"/>
-      <c r="P44" s="134"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="134"/>
-      <c r="X44" s="134"/>
-      <c r="Y44" s="134"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="142"/>
+      <c r="R44" s="142"/>
+      <c r="S44" s="142"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="142"/>
+      <c r="V44" s="142"/>
+      <c r="W44" s="142"/>
+      <c r="X44" s="142"/>
+      <c r="Y44" s="142"/>
     </row>
     <row r="45" spans="6:25" ht="18" customHeight="1">
-      <c r="F45" s="141" t="s">
+      <c r="F45" s="148" t="s">
         <v>535</v>
       </c>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="141" t="s">
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="148" t="s">
         <v>538</v>
       </c>
-      <c r="O45" s="132"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
-      <c r="S45" s="132"/>
-      <c r="T45" s="132"/>
-      <c r="U45" s="132"/>
-      <c r="V45" s="132"/>
-      <c r="W45" s="132"/>
-      <c r="X45" s="132"/>
-      <c r="Y45" s="132"/>
+      <c r="O45" s="140"/>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="140"/>
+      <c r="T45" s="140"/>
+      <c r="U45" s="140"/>
+      <c r="V45" s="140"/>
+      <c r="W45" s="140"/>
+      <c r="X45" s="140"/>
+      <c r="Y45" s="140"/>
     </row>
     <row r="46" spans="6:25" ht="18" customHeight="1">
-      <c r="F46" s="141" t="s">
+      <c r="F46" s="148" t="s">
         <v>536</v>
       </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="141" t="s">
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="148" t="s">
         <v>541</v>
       </c>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
-      <c r="S46" s="132"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="132"/>
-      <c r="V46" s="132"/>
-      <c r="W46" s="132"/>
-      <c r="X46" s="132"/>
-      <c r="Y46" s="132"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="140"/>
+      <c r="T46" s="140"/>
+      <c r="U46" s="140"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="140"/>
+      <c r="X46" s="140"/>
+      <c r="Y46" s="140"/>
     </row>
     <row r="47" spans="6:25" ht="18" customHeight="1">
-      <c r="F47" s="141" t="s">
+      <c r="F47" s="148" t="s">
         <v>537</v>
       </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="141" t="s">
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="148" t="s">
         <v>539</v>
       </c>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
-      <c r="U47" s="132"/>
-      <c r="V47" s="132"/>
-      <c r="W47" s="132"/>
-      <c r="X47" s="132"/>
-      <c r="Y47" s="132"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
+      <c r="S47" s="140"/>
+      <c r="T47" s="140"/>
+      <c r="U47" s="140"/>
+      <c r="V47" s="140"/>
+      <c r="W47" s="140"/>
+      <c r="X47" s="140"/>
+      <c r="Y47" s="140"/>
     </row>
     <row r="49" spans="6:60" ht="18" customHeight="1">
       <c r="F49" s="82" t="s">
@@ -44080,139 +45174,139 @@
       <c r="L350" s="7"/>
     </row>
     <row r="352" spans="3:24" ht="18" customHeight="1">
-      <c r="D352" s="140" t="s">
+      <c r="D352" s="149" t="s">
         <v>623</v>
       </c>
-      <c r="E352" s="134"/>
-      <c r="F352" s="134"/>
-      <c r="G352" s="134"/>
-      <c r="H352" s="134"/>
-      <c r="I352" s="134"/>
-      <c r="J352" s="134"/>
-      <c r="K352" s="134"/>
-      <c r="L352" s="140" t="s">
+      <c r="E352" s="142"/>
+      <c r="F352" s="142"/>
+      <c r="G352" s="142"/>
+      <c r="H352" s="142"/>
+      <c r="I352" s="142"/>
+      <c r="J352" s="142"/>
+      <c r="K352" s="142"/>
+      <c r="L352" s="149" t="s">
         <v>624</v>
       </c>
-      <c r="M352" s="134"/>
-      <c r="N352" s="134"/>
-      <c r="O352" s="134"/>
-      <c r="P352" s="134"/>
-      <c r="Q352" s="134"/>
-      <c r="R352" s="134"/>
-      <c r="S352" s="134"/>
-      <c r="T352" s="134"/>
-      <c r="U352" s="134"/>
-      <c r="V352" s="134"/>
-      <c r="W352" s="134"/>
-      <c r="X352" s="134"/>
+      <c r="M352" s="142"/>
+      <c r="N352" s="142"/>
+      <c r="O352" s="142"/>
+      <c r="P352" s="142"/>
+      <c r="Q352" s="142"/>
+      <c r="R352" s="142"/>
+      <c r="S352" s="142"/>
+      <c r="T352" s="142"/>
+      <c r="U352" s="142"/>
+      <c r="V352" s="142"/>
+      <c r="W352" s="142"/>
+      <c r="X352" s="142"/>
     </row>
     <row r="353" spans="4:59" ht="18" customHeight="1">
-      <c r="D353" s="141" t="s">
+      <c r="D353" s="148" t="s">
         <v>625</v>
       </c>
-      <c r="E353" s="132"/>
-      <c r="F353" s="132"/>
-      <c r="G353" s="132"/>
-      <c r="H353" s="132"/>
-      <c r="I353" s="132"/>
-      <c r="J353" s="132"/>
-      <c r="K353" s="132"/>
-      <c r="L353" s="141" t="s">
+      <c r="E353" s="140"/>
+      <c r="F353" s="140"/>
+      <c r="G353" s="140"/>
+      <c r="H353" s="140"/>
+      <c r="I353" s="140"/>
+      <c r="J353" s="140"/>
+      <c r="K353" s="140"/>
+      <c r="L353" s="148" t="s">
         <v>629</v>
       </c>
-      <c r="M353" s="132"/>
-      <c r="N353" s="132"/>
-      <c r="O353" s="132"/>
-      <c r="P353" s="132"/>
-      <c r="Q353" s="132"/>
-      <c r="R353" s="132"/>
-      <c r="S353" s="132"/>
-      <c r="T353" s="132"/>
-      <c r="U353" s="132"/>
-      <c r="V353" s="132"/>
-      <c r="W353" s="132"/>
-      <c r="X353" s="132"/>
+      <c r="M353" s="140"/>
+      <c r="N353" s="140"/>
+      <c r="O353" s="140"/>
+      <c r="P353" s="140"/>
+      <c r="Q353" s="140"/>
+      <c r="R353" s="140"/>
+      <c r="S353" s="140"/>
+      <c r="T353" s="140"/>
+      <c r="U353" s="140"/>
+      <c r="V353" s="140"/>
+      <c r="W353" s="140"/>
+      <c r="X353" s="140"/>
     </row>
     <row r="354" spans="4:59" ht="18" customHeight="1">
-      <c r="D354" s="141" t="s">
+      <c r="D354" s="148" t="s">
         <v>626</v>
       </c>
-      <c r="E354" s="132"/>
-      <c r="F354" s="132"/>
-      <c r="G354" s="132"/>
-      <c r="H354" s="132"/>
-      <c r="I354" s="132"/>
-      <c r="J354" s="132"/>
-      <c r="K354" s="132"/>
-      <c r="L354" s="141" t="s">
+      <c r="E354" s="140"/>
+      <c r="F354" s="140"/>
+      <c r="G354" s="140"/>
+      <c r="H354" s="140"/>
+      <c r="I354" s="140"/>
+      <c r="J354" s="140"/>
+      <c r="K354" s="140"/>
+      <c r="L354" s="148" t="s">
         <v>630</v>
       </c>
-      <c r="M354" s="132"/>
-      <c r="N354" s="132"/>
-      <c r="O354" s="132"/>
-      <c r="P354" s="132"/>
-      <c r="Q354" s="132"/>
-      <c r="R354" s="132"/>
-      <c r="S354" s="132"/>
-      <c r="T354" s="132"/>
-      <c r="U354" s="132"/>
-      <c r="V354" s="132"/>
-      <c r="W354" s="132"/>
-      <c r="X354" s="132"/>
+      <c r="M354" s="140"/>
+      <c r="N354" s="140"/>
+      <c r="O354" s="140"/>
+      <c r="P354" s="140"/>
+      <c r="Q354" s="140"/>
+      <c r="R354" s="140"/>
+      <c r="S354" s="140"/>
+      <c r="T354" s="140"/>
+      <c r="U354" s="140"/>
+      <c r="V354" s="140"/>
+      <c r="W354" s="140"/>
+      <c r="X354" s="140"/>
     </row>
     <row r="355" spans="4:59" ht="18" customHeight="1">
-      <c r="D355" s="141" t="s">
+      <c r="D355" s="148" t="s">
         <v>627</v>
       </c>
-      <c r="E355" s="132"/>
-      <c r="F355" s="132"/>
-      <c r="G355" s="132"/>
-      <c r="H355" s="132"/>
-      <c r="I355" s="132"/>
-      <c r="J355" s="132"/>
-      <c r="K355" s="132"/>
-      <c r="L355" s="141" t="s">
+      <c r="E355" s="140"/>
+      <c r="F355" s="140"/>
+      <c r="G355" s="140"/>
+      <c r="H355" s="140"/>
+      <c r="I355" s="140"/>
+      <c r="J355" s="140"/>
+      <c r="K355" s="140"/>
+      <c r="L355" s="148" t="s">
         <v>631</v>
       </c>
-      <c r="M355" s="132"/>
-      <c r="N355" s="132"/>
-      <c r="O355" s="132"/>
-      <c r="P355" s="132"/>
-      <c r="Q355" s="132"/>
-      <c r="R355" s="132"/>
-      <c r="S355" s="132"/>
-      <c r="T355" s="132"/>
-      <c r="U355" s="132"/>
-      <c r="V355" s="132"/>
-      <c r="W355" s="132"/>
-      <c r="X355" s="132"/>
+      <c r="M355" s="140"/>
+      <c r="N355" s="140"/>
+      <c r="O355" s="140"/>
+      <c r="P355" s="140"/>
+      <c r="Q355" s="140"/>
+      <c r="R355" s="140"/>
+      <c r="S355" s="140"/>
+      <c r="T355" s="140"/>
+      <c r="U355" s="140"/>
+      <c r="V355" s="140"/>
+      <c r="W355" s="140"/>
+      <c r="X355" s="140"/>
     </row>
     <row r="356" spans="4:59" ht="18" customHeight="1">
-      <c r="D356" s="141" t="s">
+      <c r="D356" s="148" t="s">
         <v>628</v>
       </c>
-      <c r="E356" s="132"/>
-      <c r="F356" s="132"/>
-      <c r="G356" s="132"/>
-      <c r="H356" s="132"/>
-      <c r="I356" s="132"/>
-      <c r="J356" s="132"/>
-      <c r="K356" s="132"/>
-      <c r="L356" s="141" t="s">
+      <c r="E356" s="140"/>
+      <c r="F356" s="140"/>
+      <c r="G356" s="140"/>
+      <c r="H356" s="140"/>
+      <c r="I356" s="140"/>
+      <c r="J356" s="140"/>
+      <c r="K356" s="140"/>
+      <c r="L356" s="148" t="s">
         <v>632</v>
       </c>
-      <c r="M356" s="132"/>
-      <c r="N356" s="132"/>
-      <c r="O356" s="132"/>
-      <c r="P356" s="132"/>
-      <c r="Q356" s="132"/>
-      <c r="R356" s="132"/>
-      <c r="S356" s="132"/>
-      <c r="T356" s="132"/>
-      <c r="U356" s="132"/>
-      <c r="V356" s="132"/>
-      <c r="W356" s="132"/>
-      <c r="X356" s="132"/>
+      <c r="M356" s="140"/>
+      <c r="N356" s="140"/>
+      <c r="O356" s="140"/>
+      <c r="P356" s="140"/>
+      <c r="Q356" s="140"/>
+      <c r="R356" s="140"/>
+      <c r="S356" s="140"/>
+      <c r="T356" s="140"/>
+      <c r="U356" s="140"/>
+      <c r="V356" s="140"/>
+      <c r="W356" s="140"/>
+      <c r="X356" s="140"/>
     </row>
     <row r="357" spans="4:59" ht="18" customHeight="1">
       <c r="D357" s="93"/>
@@ -45572,18 +46666,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D354:K354"/>
-    <mergeCell ref="L354:X354"/>
-    <mergeCell ref="D355:K355"/>
-    <mergeCell ref="L355:X355"/>
-    <mergeCell ref="D356:K356"/>
-    <mergeCell ref="L356:X356"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="D352:K352"/>
-    <mergeCell ref="L352:X352"/>
-    <mergeCell ref="D353:K353"/>
-    <mergeCell ref="L353:X353"/>
     <mergeCell ref="F46:M46"/>
     <mergeCell ref="N46:Y46"/>
     <mergeCell ref="A1:A7"/>
@@ -45591,8 +46673,20 @@
     <mergeCell ref="N44:Y44"/>
     <mergeCell ref="F45:M45"/>
     <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="D352:K352"/>
+    <mergeCell ref="L352:X352"/>
+    <mergeCell ref="D353:K353"/>
+    <mergeCell ref="L353:X353"/>
+    <mergeCell ref="D354:K354"/>
+    <mergeCell ref="L354:X354"/>
+    <mergeCell ref="D355:K355"/>
+    <mergeCell ref="L355:X355"/>
+    <mergeCell ref="D356:K356"/>
+    <mergeCell ref="L356:X356"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{ABE37B71-1663-43EE-BAD0-ED04E1E2D111}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{A7786648-CA77-402A-84AD-01B74E44B793}"/>
@@ -45609,10 +46703,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110FE2C-54F1-487B-8066-1040FE234602}">
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="Q117" sqref="Q117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -45622,7 +46716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -45630,7 +46724,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -45639,7 +46733,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -45648,7 +46742,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -45657,7 +46751,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -45666,7 +46760,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -45675,7 +46769,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -46686,114 +47780,114 @@
       <c r="W70" s="91"/>
     </row>
     <row r="72" spans="5:23" ht="18" customHeight="1">
-      <c r="E72" s="140" t="s">
+      <c r="E72" s="149" t="s">
         <v>700</v>
       </c>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140" t="s">
+      <c r="F72" s="149"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="149"/>
+      <c r="I72" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="140"/>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
+      <c r="J72" s="149"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="149"/>
+      <c r="M72" s="149"/>
+      <c r="N72" s="149"/>
+      <c r="O72" s="149"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="149"/>
+      <c r="R72" s="149"/>
+      <c r="S72" s="149"/>
+      <c r="T72" s="149"/>
     </row>
     <row r="73" spans="5:23" ht="18" customHeight="1">
-      <c r="E73" s="141" t="s">
+      <c r="E73" s="148" t="s">
         <v>702</v>
       </c>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141" t="s">
+      <c r="F73" s="148"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148" t="s">
         <v>706</v>
       </c>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="141"/>
-      <c r="R73" s="141"/>
-      <c r="S73" s="141"/>
-      <c r="T73" s="141"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="148"/>
+      <c r="N73" s="148"/>
+      <c r="O73" s="148"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="148"/>
+      <c r="S73" s="148"/>
+      <c r="T73" s="148"/>
     </row>
     <row r="74" spans="5:23" ht="18" customHeight="1">
-      <c r="E74" s="141" t="s">
+      <c r="E74" s="148" t="s">
         <v>703</v>
       </c>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141" t="s">
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148" t="s">
         <v>707</v>
       </c>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
-      <c r="O74" s="141"/>
-      <c r="P74" s="141"/>
-      <c r="Q74" s="141"/>
-      <c r="R74" s="141"/>
-      <c r="S74" s="141"/>
-      <c r="T74" s="141"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="148"/>
+      <c r="N74" s="148"/>
+      <c r="O74" s="148"/>
+      <c r="P74" s="148"/>
+      <c r="Q74" s="148"/>
+      <c r="R74" s="148"/>
+      <c r="S74" s="148"/>
+      <c r="T74" s="148"/>
     </row>
     <row r="75" spans="5:23" ht="18" customHeight="1">
-      <c r="E75" s="141" t="s">
+      <c r="E75" s="148" t="s">
         <v>704</v>
       </c>
-      <c r="F75" s="141"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141" t="s">
+      <c r="F75" s="148"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148" t="s">
         <v>708</v>
       </c>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="141"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="141"/>
-      <c r="O75" s="141"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="141"/>
-      <c r="S75" s="141"/>
-      <c r="T75" s="141"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="148"/>
+      <c r="O75" s="148"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="148"/>
+      <c r="R75" s="148"/>
+      <c r="S75" s="148"/>
+      <c r="T75" s="148"/>
     </row>
     <row r="76" spans="5:23" ht="18" customHeight="1">
-      <c r="E76" s="141" t="s">
+      <c r="E76" s="148" t="s">
         <v>705</v>
       </c>
-      <c r="F76" s="141"/>
-      <c r="G76" s="141"/>
-      <c r="H76" s="141"/>
-      <c r="I76" s="141" t="s">
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148" t="s">
         <v>709</v>
       </c>
-      <c r="J76" s="141"/>
-      <c r="K76" s="141"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="141"/>
-      <c r="N76" s="141"/>
-      <c r="O76" s="141"/>
-      <c r="P76" s="141"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="141"/>
-      <c r="S76" s="141"/>
-      <c r="T76" s="141"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="148"/>
+      <c r="R76" s="148"/>
+      <c r="S76" s="148"/>
+      <c r="T76" s="148"/>
     </row>
     <row r="78" spans="5:23" ht="18" customHeight="1">
       <c r="E78" s="90" t="s">
@@ -46821,7 +47915,7 @@
       </c>
     </row>
     <row r="84" spans="5:19" ht="18" customHeight="1">
-      <c r="E84" s="152" t="s">
+      <c r="E84" s="115" t="s">
         <v>934</v>
       </c>
     </row>
@@ -46864,7 +47958,7 @@
       <c r="S86" s="91"/>
     </row>
     <row r="88" spans="5:19" ht="18" customHeight="1">
-      <c r="E88" s="152" t="s">
+      <c r="E88" s="115" t="s">
         <v>937</v>
       </c>
     </row>
@@ -46872,34 +47966,34 @@
       <c r="E89" s="91" t="s">
         <v>938</v>
       </c>
-      <c r="F89" s="153"/>
-      <c r="G89" s="153"/>
-      <c r="H89" s="153"/>
-      <c r="I89" s="153"/>
-      <c r="J89" s="153"/>
-      <c r="K89" s="153"/>
-      <c r="L89" s="153"/>
-      <c r="M89" s="153"/>
-      <c r="N89" s="153"/>
-      <c r="O89" s="153"/>
-      <c r="P89" s="153"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="116"/>
+      <c r="H89" s="116"/>
+      <c r="I89" s="116"/>
+      <c r="J89" s="116"/>
+      <c r="K89" s="116"/>
+      <c r="L89" s="116"/>
+      <c r="M89" s="116"/>
+      <c r="N89" s="116"/>
+      <c r="O89" s="116"/>
+      <c r="P89" s="116"/>
     </row>
     <row r="90" spans="5:19" ht="18" customHeight="1">
-      <c r="E90" s="153"/>
-      <c r="F90" s="153"/>
-      <c r="G90" s="153"/>
-      <c r="H90" s="153"/>
-      <c r="I90" s="153"/>
-      <c r="J90" s="153"/>
-      <c r="K90" s="153"/>
-      <c r="L90" s="153"/>
-      <c r="M90" s="153"/>
-      <c r="N90" s="153"/>
-      <c r="O90" s="153"/>
-      <c r="P90" s="153"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="116"/>
+      <c r="P90" s="116"/>
     </row>
     <row r="92" spans="5:19" ht="18" customHeight="1">
-      <c r="E92" s="146" t="s">
+      <c r="E92" s="112" t="s">
         <v>934</v>
       </c>
     </row>
@@ -46949,7 +48043,7 @@
       <c r="O95" s="91"/>
     </row>
     <row r="97" spans="5:15" ht="18" customHeight="1">
-      <c r="E97" s="146" t="s">
+      <c r="E97" s="112" t="s">
         <v>941</v>
       </c>
     </row>
@@ -47029,7 +48123,7 @@
       <c r="O102" s="91"/>
     </row>
     <row r="104" spans="5:15" ht="18" customHeight="1">
-      <c r="E104" s="146" t="s">
+      <c r="E104" s="112" t="s">
         <v>946</v>
       </c>
     </row>
@@ -47037,19 +48131,19 @@
       <c r="E105" s="91" t="s">
         <v>947</v>
       </c>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
-      <c r="H105" s="153"/>
-      <c r="I105" s="153"/>
-      <c r="J105" s="153"/>
-      <c r="K105" s="153"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="153"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="116"/>
+      <c r="H105" s="116"/>
+      <c r="I105" s="116"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="116"/>
+      <c r="N105" s="116"/>
+      <c r="O105" s="116"/>
     </row>
     <row r="107" spans="5:15" ht="18" customHeight="1">
-      <c r="E107" s="146" t="s">
+      <c r="E107" s="112" t="s">
         <v>948</v>
       </c>
     </row>
@@ -47057,15 +48151,15 @@
       <c r="E108" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="F108" s="153"/>
-      <c r="G108" s="153"/>
-      <c r="H108" s="153"/>
-      <c r="I108" s="153"/>
-      <c r="J108" s="153"/>
-      <c r="K108" s="153"/>
-      <c r="L108" s="153"/>
-      <c r="M108" s="153"/>
-      <c r="N108" s="153"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="116"/>
+      <c r="H108" s="116"/>
+      <c r="I108" s="116"/>
+      <c r="J108" s="116"/>
+      <c r="K108" s="116"/>
+      <c r="L108" s="116"/>
+      <c r="M108" s="116"/>
+      <c r="N108" s="116"/>
     </row>
     <row r="109" spans="5:15" ht="18" customHeight="1">
       <c r="E109" s="91" t="s">
@@ -47123,7 +48217,7 @@
       <c r="M112" s="91"/>
       <c r="N112" s="91"/>
     </row>
-    <row r="113" spans="5:14" ht="18" customHeight="1">
+    <row r="113" spans="3:14" ht="18" customHeight="1">
       <c r="E113" s="91" t="s">
         <v>954</v>
       </c>
@@ -47137,7 +48231,7 @@
       <c r="M113" s="91"/>
       <c r="N113" s="91"/>
     </row>
-    <row r="114" spans="5:14" ht="18" customHeight="1">
+    <row r="114" spans="3:14" ht="18" customHeight="1">
       <c r="E114" s="91" t="s">
         <v>178</v>
       </c>
@@ -47151,43 +48245,52 @@
       <c r="M114" s="91"/>
       <c r="N114" s="91"/>
     </row>
-    <row r="117" spans="5:14" ht="18" customHeight="1">
-      <c r="E117" s="146" t="s">
+    <row r="117" spans="3:14" ht="18" customHeight="1">
+      <c r="E117" s="112" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="119" spans="5:14" ht="18" customHeight="1">
-      <c r="E119" s="146" t="s">
+    <row r="119" spans="3:14" ht="18" customHeight="1">
+      <c r="E119" s="112" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="120" spans="5:14" ht="18" customHeight="1">
+    <row r="120" spans="3:14" ht="18" customHeight="1">
       <c r="E120" s="91" t="s">
         <v>957</v>
       </c>
-      <c r="F120" s="153"/>
-      <c r="G120" s="153"/>
-      <c r="H120" s="153"/>
-      <c r="I120" s="153"/>
-      <c r="J120" s="153"/>
-      <c r="K120" s="153"/>
-      <c r="L120" s="153"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="116"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="116"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="116"/>
+      <c r="L120" s="116"/>
+    </row>
+    <row r="122" spans="3:14" ht="18" customHeight="1">
+      <c r="C122" s="154" t="s">
+        <v>960</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="I75:T75"/>
     <mergeCell ref="E76:H76"/>
     <mergeCell ref="I76:T76"/>
     <mergeCell ref="I73:T73"/>
     <mergeCell ref="I74:T74"/>
     <mergeCell ref="E73:H73"/>
     <mergeCell ref="E74:H74"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="I75:T75"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{F65BC966-7900-42B3-AE77-073CD9879FD5}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{395EDF65-2CEA-4C5A-BAB4-6FAE52581F41}"/>
@@ -47199,6 +48302,7 @@
     <hyperlink ref="E78" r:id="rId7" xr:uid="{FCC526E4-9F9C-48AA-92EA-40642640227C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -47217,7 +48321,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -47225,7 +48329,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -47234,7 +48338,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -47243,7 +48347,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -47252,7 +48356,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -47261,7 +48365,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -47270,7 +48374,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -50978,7 +52082,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{0501AB8A-2E69-48F6-8415-CF482FDF8AA7}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{265BF8CF-EDC6-47C8-A7E3-30F88CA01C5E}"/>
